--- a/AAII_Financials/Quarterly/GRMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRMC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/GRMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>GRMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,77 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -738,43 +745,49 @@
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
+      <c r="H8" s="3">
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -791,14 +804,14 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -809,8 +822,14 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -832,15 +851,15 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
@@ -850,8 +869,14 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,49 +892,57 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
       <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
       <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
       <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,26 +982,32 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
@@ -984,14 +1023,20 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1076,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,37 +1096,39 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>400</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
@@ -1086,8 +1139,14 @@
       <c r="O17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1097,38 +1156,44 @@
       <c r="E18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1209,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1155,38 +1222,44 @@
       <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1196,120 +1269,138 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
       </c>
       <c r="I22" s="3">
+        <v>300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-300</v>
       </c>
       <c r="L23" s="3">
         <v>-200</v>
       </c>
       <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1440,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,75 +1487,87 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-300</v>
       </c>
       <c r="L26" s="3">
         <v>-200</v>
       </c>
       <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-300</v>
       </c>
       <c r="L27" s="3">
         <v>-200</v>
@@ -1472,8 +1581,14 @@
       <c r="O27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1628,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1675,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1722,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1769,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1647,64 +1786,70 @@
       <c r="E32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-300</v>
       </c>
       <c r="L33" s="3">
         <v>-200</v>
@@ -1718,8 +1863,14 @@
       <c r="O33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,34 +1910,40 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-300</v>
       </c>
       <c r="L35" s="3">
         <v>-200</v>
@@ -1800,54 +1957,66 @@
       <c r="O35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2032,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,8 +2051,10 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1892,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -1901,17 +2074,17 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -1919,10 +2092,16 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,8 +2141,14 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1988,23 +2173,29 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,31 +2235,37 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
       </c>
       <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>200</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
@@ -2077,21 +2274,27 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
@@ -2100,34 +2303,40 @@
         <v>200</v>
       </c>
       <c r="G46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
       </c>
       <c r="I46" s="3">
+        <v>300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>200</v>
+      </c>
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,13 +2376,19 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>900</v>
@@ -2194,10 +2409,10 @@
         <v>900</v>
       </c>
       <c r="K48" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L48" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M48" s="3">
         <v>700</v>
@@ -2206,10 +2421,16 @@
         <v>700</v>
       </c>
       <c r="O48" s="3">
+        <v>700</v>
+      </c>
+      <c r="P48" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q48" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2470,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2517,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2564,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2611,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,13 +2658,19 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="E54" s="3">
         <v>1100</v>
@@ -2428,7 +2679,7 @@
         <v>1100</v>
       </c>
       <c r="G54" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H54" s="3">
         <v>1100</v>
@@ -2437,25 +2688,31 @@
         <v>1200</v>
       </c>
       <c r="J54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L54" s="3">
         <v>1500</v>
-      </c>
-      <c r="K54" s="3">
-        <v>800</v>
-      </c>
-      <c r="L54" s="3">
-        <v>700</v>
       </c>
       <c r="M54" s="3">
         <v>800</v>
       </c>
       <c r="N54" s="3">
+        <v>700</v>
+      </c>
+      <c r="O54" s="3">
         <v>800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2728,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,119 +2747,133 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F57" s="3">
         <v>1200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1100</v>
       </c>
       <c r="G57" s="3">
         <v>1200</v>
       </c>
       <c r="H57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F58" s="3">
         <v>4000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>400</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -2609,51 +2882,63 @@
         <v>0</v>
       </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F60" s="3">
         <v>6200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>5800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,8 +2978,14 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2702,13 +2993,13 @@
         <v>500</v>
       </c>
       <c r="E62" s="3">
+        <v>700</v>
+      </c>
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
-        <v>400</v>
-      </c>
       <c r="G62" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H62" s="3">
         <v>400</v>
@@ -2734,8 +3025,14 @@
       <c r="O62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3072,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3119,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3166,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F66" s="3">
         <v>6600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3236,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3279,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3326,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3373,14 @@
       <c r="O70" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3420,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-33700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-33300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-32900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-32100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-30600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-29500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-29100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-28900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-28600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-28400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-28100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3514,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3561,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3608,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-5900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-5500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-5100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-4400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1500</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-1100</v>
       </c>
       <c r="O76" s="3">
         <v>-1300</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>-1300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,80 +3702,92 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-300</v>
       </c>
       <c r="L81" s="3">
         <v>-200</v>
@@ -3412,8 +3801,14 @@
       <c r="O81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3824,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3867,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3914,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3961,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4008,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4055,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,40 +4102,46 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
@@ -3716,8 +4149,14 @@
       <c r="O89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +4172,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3774,8 +4215,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4262,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4309,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3897,8 +4356,14 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4379,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4422,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4469,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4516,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4563,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,8 +4657,14 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4169,36 +4672,42 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
       </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>GRMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,89 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,8 +763,8 @@
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
@@ -760,34 +772,43 @@
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -795,8 +816,8 @@
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -810,8 +831,8 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -819,8 +840,8 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
@@ -828,8 +849,17 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -857,26 +887,35 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,28 +933,31 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -933,16 +975,25 @@
         <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,13 +1039,22 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
@@ -1003,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>100</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1029,14 +1089,23 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1151,17 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,46 +1176,49 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
+        <v>800</v>
+      </c>
+      <c r="H17" s="3">
+        <v>400</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
@@ -1145,8 +1226,17 @@
       <c r="Q17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1162,38 +1252,47 @@
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1310,11 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1228,8 +1330,8 @@
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
@@ -1237,29 +1339,38 @@
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1275,43 +1386,52 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1320,87 +1440,105 @@
         <v>200</v>
       </c>
       <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="E23" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F23" s="3">
         <v>-400</v>
       </c>
       <c r="G23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-200</v>
       </c>
       <c r="O23" s="3">
         <v>-200</v>
       </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="Q23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1584,17 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1640,129 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="E26" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F26" s="3">
         <v>-400</v>
       </c>
       <c r="G26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-200</v>
       </c>
       <c r="O26" s="3">
         <v>-200</v>
       </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="Q26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="E27" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F27" s="3">
         <v>-400</v>
       </c>
       <c r="G27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1808,17 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1864,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1920,17 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1976,17 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1792,8 +2002,8 @@
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
@@ -1801,76 +2011,94 @@
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="E33" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F33" s="3">
         <v>-400</v>
       </c>
       <c r="G33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2144,134 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="E35" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F35" s="3">
         <v>-400</v>
       </c>
       <c r="G35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2289,11 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2311,11 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2071,37 +2332,46 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2417,17 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2179,23 +2458,32 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,60 +2529,78 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
-      </c>
-      <c r="E45" s="3">
-        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
       <c r="I45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
@@ -2303,63 +2609,72 @@
         <v>200</v>
       </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
       </c>
       <c r="I46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
       </c>
       <c r="K46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L46" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
       </c>
       <c r="N46" s="3">
+        <v>400</v>
+      </c>
+      <c r="O46" s="3">
+        <v>600</v>
+      </c>
+      <c r="P46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2382,8 +2697,17 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2391,13 +2715,13 @@
         <v>600</v>
       </c>
       <c r="E48" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F48" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G48" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="H48" s="3">
         <v>900</v>
@@ -2415,22 +2739,31 @@
         <v>900</v>
       </c>
       <c r="M48" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="N48" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="O48" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="P48" s="3">
         <v>700</v>
       </c>
       <c r="Q48" s="3">
+        <v>700</v>
+      </c>
+      <c r="R48" s="3">
+        <v>700</v>
+      </c>
+      <c r="S48" s="3">
+        <v>700</v>
+      </c>
+      <c r="T48" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2809,17 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2865,17 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2921,17 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2977,17 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +3033,73 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>800</v>
+      </c>
+      <c r="F54" s="3">
+        <v>800</v>
+      </c>
+      <c r="G54" s="3">
         <v>700</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1100</v>
       </c>
       <c r="H54" s="3">
         <v>1100</v>
       </c>
       <c r="I54" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J54" s="3">
         <v>1100</v>
       </c>
       <c r="K54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L54" s="3">
         <v>1200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O54" s="3">
         <v>1500</v>
-      </c>
-      <c r="M54" s="3">
-        <v>800</v>
-      </c>
-      <c r="N54" s="3">
-        <v>700</v>
-      </c>
-      <c r="O54" s="3">
-        <v>800</v>
       </c>
       <c r="P54" s="3">
         <v>800</v>
       </c>
       <c r="Q54" s="3">
+        <v>700</v>
+      </c>
+      <c r="R54" s="3">
+        <v>800</v>
+      </c>
+      <c r="S54" s="3">
+        <v>800</v>
+      </c>
+      <c r="T54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +3117,11 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,196 +3139,235 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1100</v>
       </c>
       <c r="I57" s="3">
         <v>1200</v>
       </c>
       <c r="J57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G58" s="3">
         <v>4700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>4300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>4000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>3800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>3700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>3200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>2500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>2000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>1900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>1100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>800</v>
-      </c>
-      <c r="O58" s="3">
-        <v>700</v>
-      </c>
-      <c r="P58" s="3">
-        <v>700</v>
       </c>
       <c r="Q58" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>700</v>
+      </c>
+      <c r="S58" s="3">
+        <v>700</v>
+      </c>
+      <c r="T58" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G60" s="3">
         <v>7600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>6600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>6200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>5800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>5500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>4900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>3400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>2700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>2500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>1900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2946,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2984,16 +3413,25 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
-      </c>
-      <c r="E62" s="3">
-        <v>700</v>
       </c>
       <c r="F62" s="3">
         <v>500</v>
@@ -3002,13 +3440,13 @@
         <v>500</v>
       </c>
       <c r="H62" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="I62" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J62" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K62" s="3">
         <v>400</v>
@@ -3031,8 +3469,17 @@
       <c r="Q62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>400</v>
+      </c>
+      <c r="S62" s="3">
+        <v>400</v>
+      </c>
+      <c r="T62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3525,17 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3581,17 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3637,73 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F66" s="3">
+        <v>8600</v>
+      </c>
+      <c r="G66" s="3">
         <v>8100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>7300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>6600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>6200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>5900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>5300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>3800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>3100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>2900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>2300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>2000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>1700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3721,11 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3771,17 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3827,17 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3883,17 @@
       <c r="Q70" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>300</v>
+      </c>
+      <c r="S70" s="3">
+        <v>300</v>
+      </c>
+      <c r="T70" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3939,73 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="G72" s="3">
         <v>-35500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-34300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-33700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-33300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-32900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-32100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-30600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-29500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-29100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-28900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-28600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-28400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-28100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +4051,17 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +4107,17 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +4163,73 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="G76" s="3">
         <v>-7600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-6500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-5900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-5500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-5100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-4400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-3000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-2100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-1700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>-1800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>-1500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>-1300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4275,134 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="E81" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F81" s="3">
         <v>-400</v>
       </c>
       <c r="G81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4420,11 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4470,17 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4526,17 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4582,17 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4638,17 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4694,17 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4750,73 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-300</v>
       </c>
       <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4834,11 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4884,17 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4940,17 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4996,17 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +5052,17 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +5080,11 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +5130,17 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +5186,17 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5242,17 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +5298,17 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4578,46 +5316,55 @@
         <v>300</v>
       </c>
       <c r="E100" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>
       </c>
       <c r="G100" s="3">
+        <v>300</v>
+      </c>
+      <c r="H100" s="3">
+        <v>300</v>
+      </c>
+      <c r="I100" s="3">
+        <v>200</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>1000</v>
-      </c>
-      <c r="M100" s="3">
-        <v>200</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>200</v>
       </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +5410,17 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4678,36 +5434,45 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>GRMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,158 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3">
         <v>100</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -816,14 +829,14 @@
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -840,14 +853,14 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
@@ -858,8 +871,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,8 +897,8 @@
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
@@ -896,15 +915,15 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -945,55 +972,61 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
       <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
       <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
       <c r="R12" s="3">
         <v>0</v>
       </c>
       <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
         <v>100</v>
       </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,41 +1081,47 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1098,14 +1137,20 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1230,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1188,43 +1241,43 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
@@ -1235,64 +1288,76 @@
       <c r="T17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="E18" s="3">
         <v>-500</v>
       </c>
+      <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
+      <c r="M18" s="3">
+        <v>-500</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1378,134 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
+      <c r="S20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="E21" s="3">
         <v>-500</v>
       </c>
+      <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
+      <c r="M21" s="3">
+        <v>-500</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1440,105 +1519,117 @@
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
       </c>
       <c r="K22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>300</v>
       </c>
       <c r="N22" s="3">
+        <v>300</v>
+      </c>
+      <c r="O22" s="3">
+        <v>300</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-300</v>
       </c>
       <c r="Q23" s="3">
         <v>-200</v>
       </c>
       <c r="R23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,105 +1746,117 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-300</v>
       </c>
       <c r="Q26" s="3">
         <v>-200</v>
       </c>
       <c r="R26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-300</v>
       </c>
       <c r="Q27" s="3">
         <v>-200</v>
@@ -1761,8 +1870,14 @@
       <c r="T27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,105 +2118,117 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
+      <c r="S32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-300</v>
       </c>
       <c r="Q33" s="3">
         <v>-200</v>
@@ -2097,8 +2242,14 @@
       <c r="T33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,49 +2304,55 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-300</v>
       </c>
       <c r="Q35" s="3">
         <v>-200</v>
@@ -2209,69 +2366,81 @@
       <c r="T35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,13 +2485,15 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>0</v>
+      <c r="D41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2341,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2350,17 +2523,17 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
@@ -2368,10 +2541,16 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2467,23 +2652,29 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,19 +2729,25 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>400</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2559,25 +2756,25 @@
         <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
       </c>
       <c r="K45" s="3">
+        <v>200</v>
+      </c>
+      <c r="L45" s="3">
+        <v>200</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>200</v>
-      </c>
-      <c r="O45" s="3">
-        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
@@ -2586,36 +2783,42 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
       <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
-      </c>
-      <c r="F46" s="3">
-        <v>200</v>
-      </c>
-      <c r="G46" s="3">
-        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
       </c>
       <c r="I46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
@@ -2624,45 +2827,51 @@
         <v>200</v>
       </c>
       <c r="L46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
       </c>
       <c r="N46" s="3">
+        <v>300</v>
+      </c>
+      <c r="O46" s="3">
+        <v>200</v>
+      </c>
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>100</v>
-      </c>
-      <c r="R46" s="3">
-        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>100</v>
       </c>
       <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
@@ -2676,11 +2885,11 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2706,13 +2915,19 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>600</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E48" s="3">
         <v>600</v>
@@ -2724,10 +2939,10 @@
         <v>600</v>
       </c>
       <c r="H48" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="I48" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="J48" s="3">
         <v>900</v>
@@ -2748,10 +2963,10 @@
         <v>900</v>
       </c>
       <c r="P48" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q48" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="R48" s="3">
         <v>700</v>
@@ -2760,10 +2975,16 @@
         <v>700</v>
       </c>
       <c r="T48" s="3">
+        <v>700</v>
+      </c>
+      <c r="U48" s="3">
+        <v>700</v>
+      </c>
+      <c r="V48" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,28 +3287,34 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="3">
+        <v>700</v>
+      </c>
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>700</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1100</v>
       </c>
       <c r="J54" s="3">
         <v>1100</v>
@@ -3072,7 +3323,7 @@
         <v>1100</v>
       </c>
       <c r="L54" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="M54" s="3">
         <v>1100</v>
@@ -3081,25 +3332,31 @@
         <v>1200</v>
       </c>
       <c r="O54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1500</v>
-      </c>
-      <c r="P54" s="3">
-        <v>800</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>700</v>
       </c>
       <c r="R54" s="3">
         <v>800</v>
       </c>
       <c r="S54" s="3">
+        <v>700</v>
+      </c>
+      <c r="T54" s="3">
         <v>800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
+        <v>800</v>
+      </c>
+      <c r="V54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,164 +3401,178 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>2000</v>
+      <c r="D57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E57" s="3">
         <v>1800</v>
       </c>
       <c r="F57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1100</v>
       </c>
       <c r="L57" s="3">
         <v>1200</v>
       </c>
       <c r="M57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F58" s="3">
         <v>5100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>5100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>4900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>4700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>4300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>4000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F59" s="3">
         <v>2000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>400</v>
       </c>
       <c r="O59" s="3">
         <v>400</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3308,66 +3581,78 @@
         <v>0</v>
       </c>
       <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F60" s="3">
         <v>9100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>8600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>8200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>7600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>6600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>6200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3375,14 +3660,14 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>100</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3422,37 +3707,43 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
-        <v>500</v>
-      </c>
       <c r="F62" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G62" s="3">
         <v>500</v>
       </c>
       <c r="H62" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="I62" s="3">
         <v>500</v>
       </c>
       <c r="J62" s="3">
+        <v>700</v>
+      </c>
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="K62" s="3">
-        <v>400</v>
-      </c>
       <c r="L62" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M62" s="3">
         <v>400</v>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>400</v>
+      </c>
+      <c r="V62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F66" s="3">
         <v>9400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>7300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,13 +4165,19 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>300</v>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>300</v>
+      </c>
+      <c r="V70" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-37000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-36400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-35900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-35500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-34300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-33700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-33300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-32900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-32100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-30600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-29500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-29100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-28900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-28600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-28400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-28100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-8700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-8600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-8100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-7600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-6500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-5900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-5500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-5100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-4400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1500</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-1100</v>
       </c>
       <c r="T76" s="3">
         <v>-1300</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="V76" s="3">
+        <v>-1300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,110 +4661,122 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-300</v>
       </c>
       <c r="Q81" s="3">
         <v>-200</v>
@@ -4401,8 +4790,14 @@
       <c r="T81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5186,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,46 +5201,46 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>-200</v>
@@ -4815,8 +5248,14 @@
       <c r="T89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5792,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>300</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5916,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5443,36 +5946,42 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
       </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>GRMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -779,17 +783,17 @@
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
@@ -797,26 +801,29 @@
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="3">
         <v>100</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -835,11 +842,11 @@
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -859,11 +866,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -897,11 +907,11 @@
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -921,12 +931,12 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -972,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
@@ -990,7 +1004,7 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -999,20 +1013,20 @@
         <v>0</v>
       </c>
       <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
       <c r="P12" s="3">
         <v>0</v>
       </c>
       <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
       <c r="S12" s="3">
         <v>0</v>
       </c>
@@ -1020,13 +1034,16 @@
         <v>0</v>
       </c>
       <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
         <v>100</v>
       </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1099,32 +1119,32 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>100</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1143,14 +1163,17 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,55 +1258,56 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
         <v>500</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1200</v>
       </c>
       <c r="O17" s="3">
         <v>1200</v>
       </c>
       <c r="P17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
@@ -1294,8 +1321,11 @@
       <c r="V17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,61 +1333,64 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,7 +1423,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1406,17 +1440,17 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
@@ -1424,26 +1458,29 @@
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,10 +1488,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-300</v>
       </c>
       <c r="G21" s="3">
         <v>-300</v>
@@ -1463,49 +1500,52 @@
         <v>-300</v>
       </c>
       <c r="I21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1525,10 +1565,10 @@
         <v>200</v>
       </c>
       <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
@@ -1537,7 +1577,7 @@
         <v>200</v>
       </c>
       <c r="M22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>300</v>
@@ -1546,90 +1586,96 @@
         <v>300</v>
       </c>
       <c r="P22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-500</v>
       </c>
       <c r="G23" s="3">
         <v>-500</v>
       </c>
       <c r="H23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-400</v>
       </c>
       <c r="L23" s="3">
         <v>-400</v>
       </c>
       <c r="M23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N23" s="3">
         <v>-800</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-1500</v>
       </c>
       <c r="O23" s="3">
         <v>-1500</v>
       </c>
       <c r="P23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-200</v>
       </c>
       <c r="T23" s="3">
         <v>-200</v>
       </c>
       <c r="U23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-700</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-500</v>
       </c>
       <c r="G26" s="3">
         <v>-500</v>
       </c>
       <c r="H26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-400</v>
       </c>
       <c r="L26" s="3">
         <v>-400</v>
       </c>
       <c r="M26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N26" s="3">
         <v>-800</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-1500</v>
       </c>
       <c r="O26" s="3">
         <v>-1500</v>
       </c>
       <c r="P26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-200</v>
       </c>
       <c r="T26" s="3">
         <v>-200</v>
       </c>
       <c r="U26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-700</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-500</v>
       </c>
       <c r="G27" s="3">
         <v>-500</v>
       </c>
       <c r="H27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-400</v>
       </c>
       <c r="L27" s="3">
         <v>-400</v>
       </c>
       <c r="M27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,7 +2203,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2150,17 +2220,17 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
@@ -2168,88 +2238,94 @@
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-700</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-500</v>
       </c>
       <c r="G33" s="3">
         <v>-500</v>
       </c>
       <c r="H33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-400</v>
       </c>
       <c r="L33" s="3">
         <v>-400</v>
       </c>
       <c r="M33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-700</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-500</v>
       </c>
       <c r="G35" s="3">
         <v>-500</v>
       </c>
       <c r="H35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-400</v>
       </c>
       <c r="L35" s="3">
         <v>-400</v>
       </c>
       <c r="M35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,13 +2573,14 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
+      <c r="D41" s="3">
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2520,23 +2607,23 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
@@ -2547,10 +2634,13 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2658,23 +2751,26 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,31 +2831,34 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
@@ -2768,25 +2867,25 @@
         <v>200</v>
       </c>
       <c r="M45" s="3">
+        <v>200</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
-      </c>
-      <c r="O45" s="3">
-        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
       <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
-      </c>
-      <c r="S45" s="3">
-        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -2795,33 +2894,36 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
+      <c r="D46" s="3">
+        <v>0</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>200</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
       </c>
       <c r="I46" s="3">
+        <v>200</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
-      </c>
-      <c r="J46" s="3">
-        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
@@ -2833,22 +2935,22 @@
         <v>200</v>
       </c>
       <c r="N46" s="3">
+        <v>200</v>
+      </c>
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
-      </c>
-      <c r="S46" s="3">
-        <v>100</v>
       </c>
       <c r="T46" s="3">
         <v>100</v>
@@ -2857,15 +2959,18 @@
         <v>100</v>
       </c>
       <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>0</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -2873,8 +2978,8 @@
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
@@ -2891,8 +2996,8 @@
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2921,13 +3026,16 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>600</v>
@@ -2945,7 +3053,7 @@
         <v>600</v>
       </c>
       <c r="J48" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K48" s="3">
         <v>900</v>
@@ -2969,7 +3077,7 @@
         <v>900</v>
       </c>
       <c r="R48" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="S48" s="3">
         <v>700</v>
@@ -2981,10 +3089,13 @@
         <v>700</v>
       </c>
       <c r="V48" s="3">
+        <v>700</v>
+      </c>
+      <c r="W48" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,31 +3416,34 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>4</v>
+      <c r="D54" s="3">
+        <v>700</v>
       </c>
       <c r="E54" s="3">
         <v>700</v>
       </c>
       <c r="F54" s="3">
+        <v>700</v>
+      </c>
+      <c r="G54" s="3">
         <v>1000</v>
-      </c>
-      <c r="G54" s="3">
-        <v>800</v>
       </c>
       <c r="H54" s="3">
         <v>800</v>
       </c>
       <c r="I54" s="3">
+        <v>800</v>
+      </c>
+      <c r="J54" s="3">
         <v>700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1100</v>
       </c>
       <c r="K54" s="3">
         <v>1100</v>
@@ -3329,34 +3455,37 @@
         <v>1100</v>
       </c>
       <c r="N54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O54" s="3">
         <v>1200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>700</v>
-      </c>
-      <c r="T54" s="3">
-        <v>800</v>
       </c>
       <c r="U54" s="3">
         <v>800</v>
       </c>
       <c r="V54" s="3">
+        <v>800</v>
+      </c>
+      <c r="W54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,170 +3533,177 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>2000</v>
       </c>
       <c r="E57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1800</v>
       </c>
       <c r="H57" s="3">
         <v>1800</v>
       </c>
       <c r="I57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1200</v>
       </c>
       <c r="L57" s="3">
         <v>1200</v>
       </c>
       <c r="M57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
-      </c>
-      <c r="S57" s="3">
-        <v>700</v>
       </c>
       <c r="T57" s="3">
         <v>700</v>
       </c>
       <c r="U57" s="3">
+        <v>700</v>
+      </c>
+      <c r="V57" s="3">
         <v>600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>5300</v>
       </c>
       <c r="E58" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F58" s="3">
         <v>5200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>5100</v>
       </c>
       <c r="G58" s="3">
         <v>5100</v>
       </c>
       <c r="H58" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I58" s="3">
         <v>4900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>800</v>
-      </c>
-      <c r="T58" s="3">
-        <v>700</v>
       </c>
       <c r="U58" s="3">
         <v>700</v>
       </c>
       <c r="V58" s="3">
+        <v>700</v>
+      </c>
+      <c r="W58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>2800</v>
       </c>
       <c r="E59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1000</v>
       </c>
       <c r="K59" s="3">
         <v>1000</v>
       </c>
       <c r="L59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
-      </c>
-      <c r="O59" s="3">
-        <v>400</v>
       </c>
       <c r="P59" s="3">
         <v>400</v>
@@ -3575,7 +3712,7 @@
         <v>400</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3587,72 +3724,78 @@
         <v>0</v>
       </c>
       <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
+      <c r="D60" s="3">
+        <v>10000</v>
       </c>
       <c r="E60" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F60" s="3">
         <v>9300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3666,11 +3809,11 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3713,13 +3856,16 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>300</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
@@ -3728,7 +3874,7 @@
         <v>300</v>
       </c>
       <c r="G62" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>500</v>
@@ -3737,16 +3883,16 @@
         <v>500</v>
       </c>
       <c r="J62" s="3">
+        <v>500</v>
+      </c>
+      <c r="K62" s="3">
         <v>700</v>
-      </c>
-      <c r="K62" s="3">
-        <v>500</v>
       </c>
       <c r="L62" s="3">
         <v>500</v>
       </c>
       <c r="M62" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N62" s="3">
         <v>400</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>10300</v>
       </c>
       <c r="E66" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F66" s="3">
         <v>9600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,13 +4336,16 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E70" s="3">
         <v>300</v>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>4</v>
+      <c r="D72" s="3">
+        <v>-38600</v>
       </c>
       <c r="E72" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-37700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-37000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-36400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-35900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-35500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-34300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-33700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-33300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-32900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-32100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-30600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-29500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-29100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-28900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-28600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-28400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-28100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>4</v>
+      <c r="D76" s="3">
+        <v>-9900</v>
       </c>
       <c r="E76" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-9200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-8700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-8600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-8100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-7600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-6500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-700</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-500</v>
       </c>
       <c r="G81" s="3">
         <v>-500</v>
       </c>
       <c r="H81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-400</v>
       </c>
       <c r="L81" s="3">
         <v>-400</v>
       </c>
       <c r="M81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
       </c>
       <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-300</v>
       </c>
       <c r="J89" s="3">
         <v>-300</v>
       </c>
       <c r="K89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-200</v>
       </c>
       <c r="S89" s="3">
         <v>-200</v>
       </c>
       <c r="T89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
-      </c>
-      <c r="E100" s="3">
-        <v>300</v>
       </c>
       <c r="F100" s="3">
         <v>300</v>
       </c>
       <c r="G100" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H100" s="3">
         <v>200</v>
       </c>
       <c r="I100" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J100" s="3">
         <v>300</v>
       </c>
       <c r="K100" s="3">
+        <v>300</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
-      </c>
-      <c r="S100" s="3">
-        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5952,26 +6204,26 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-400</v>
       </c>
       <c r="P102" s="3">
         <v>-400</v>
       </c>
       <c r="Q102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R102" s="3">
         <v>500</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -5979,9 +6231,12 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>GRMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -786,17 +790,17 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
+      <c r="L8" s="3">
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
@@ -804,26 +808,29 @@
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="3">
         <v>100</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -845,11 +852,11 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
@@ -869,11 +876,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -910,11 +920,11 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
@@ -934,12 +944,12 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
@@ -1007,7 +1021,7 @@
         <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
@@ -1016,20 +1030,20 @@
         <v>0</v>
       </c>
       <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
       <c r="Q12" s="3">
         <v>0</v>
       </c>
       <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
       <c r="T12" s="3">
         <v>0</v>
       </c>
@@ -1037,13 +1051,16 @@
         <v>0</v>
       </c>
       <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
         <v>100</v>
       </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1122,32 +1142,32 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>100</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1166,14 +1186,17 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1268,49 +1295,49 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1200</v>
       </c>
       <c r="P17" s="3">
         <v>1200</v>
       </c>
       <c r="Q17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
-      </c>
-      <c r="S17" s="3">
-        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
@@ -1324,8 +1351,11 @@
       <c r="W17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,64 +1363,67 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,11 +1457,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1443,17 +1477,17 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
@@ -1461,26 +1495,29 @@
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,13 +1525,13 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-300</v>
       </c>
       <c r="H21" s="3">
         <v>-300</v>
@@ -1503,49 +1540,52 @@
         <v>-300</v>
       </c>
       <c r="J21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1568,10 +1608,10 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
-      </c>
-      <c r="K22" s="3">
-        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
@@ -1580,7 +1620,7 @@
         <v>200</v>
       </c>
       <c r="N22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>300</v>
@@ -1589,28 +1629,31 @@
         <v>300</v>
       </c>
       <c r="Q22" s="3">
+        <v>300</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1618,64 +1661,67 @@
         <v>-400</v>
       </c>
       <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-500</v>
       </c>
       <c r="H23" s="3">
         <v>-500</v>
       </c>
       <c r="I23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-400</v>
       </c>
       <c r="M23" s="3">
         <v>-400</v>
       </c>
       <c r="N23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O23" s="3">
         <v>-800</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-1500</v>
       </c>
       <c r="P23" s="3">
         <v>-1500</v>
       </c>
       <c r="Q23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-200</v>
       </c>
       <c r="U23" s="3">
         <v>-200</v>
       </c>
       <c r="V23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1853,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1813,64 +1865,67 @@
         <v>-400</v>
       </c>
       <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-500</v>
       </c>
       <c r="H26" s="3">
         <v>-500</v>
       </c>
       <c r="I26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-400</v>
       </c>
       <c r="M26" s="3">
         <v>-400</v>
       </c>
       <c r="N26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O26" s="3">
         <v>-800</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-1500</v>
       </c>
       <c r="P26" s="3">
         <v>-1500</v>
       </c>
       <c r="Q26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-200</v>
       </c>
       <c r="U26" s="3">
         <v>-200</v>
       </c>
       <c r="V26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1878,64 +1933,67 @@
         <v>-400</v>
       </c>
       <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-500</v>
       </c>
       <c r="H27" s="3">
         <v>-500</v>
       </c>
       <c r="I27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-400</v>
       </c>
       <c r="M27" s="3">
         <v>-400</v>
       </c>
       <c r="N27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,11 +2273,11 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2223,17 +2293,17 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
@@ -2241,26 +2311,29 @@
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2268,64 +2341,67 @@
         <v>-400</v>
       </c>
       <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-500</v>
       </c>
       <c r="H33" s="3">
         <v>-500</v>
       </c>
       <c r="I33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-400</v>
       </c>
       <c r="M33" s="3">
         <v>-400</v>
       </c>
       <c r="N33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2465,11 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2398,134 +2477,140 @@
         <v>-400</v>
       </c>
       <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-500</v>
       </c>
       <c r="H35" s="3">
         <v>-500</v>
       </c>
       <c r="I35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-400</v>
       </c>
       <c r="M35" s="3">
         <v>-400</v>
       </c>
       <c r="N35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2610,23 +2697,23 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
@@ -2637,10 +2724,13 @@
         <v>0</v>
       </c>
       <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2754,23 +2847,26 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
+      <c r="S43" s="3">
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2846,22 +2945,22 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
@@ -2870,25 +2969,25 @@
         <v>200</v>
       </c>
       <c r="N45" s="3">
+        <v>200</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
-      </c>
-      <c r="P45" s="3">
-        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
       </c>
       <c r="R45" s="3">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
-      </c>
-      <c r="T45" s="3">
-        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
@@ -2897,10 +2996,13 @@
         <v>100</v>
       </c>
       <c r="W45" s="3">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2911,22 +3013,22 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
-      </c>
-      <c r="H46" s="3">
-        <v>200</v>
       </c>
       <c r="I46" s="3">
         <v>200</v>
       </c>
       <c r="J46" s="3">
+        <v>200</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
@@ -2938,22 +3040,22 @@
         <v>200</v>
       </c>
       <c r="O46" s="3">
+        <v>200</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
-      </c>
-      <c r="T46" s="3">
-        <v>100</v>
       </c>
       <c r="U46" s="3">
         <v>100</v>
@@ -2962,10 +3064,13 @@
         <v>100</v>
       </c>
       <c r="W46" s="3">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2981,8 +3086,8 @@
       <c r="G47" s="3">
         <v>0</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
@@ -2999,8 +3104,8 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3056,7 +3164,7 @@
         <v>600</v>
       </c>
       <c r="K48" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L48" s="3">
         <v>900</v>
@@ -3080,7 +3188,7 @@
         <v>900</v>
       </c>
       <c r="S48" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T48" s="3">
         <v>700</v>
@@ -3092,10 +3200,13 @@
         <v>700</v>
       </c>
       <c r="W48" s="3">
+        <v>700</v>
+      </c>
+      <c r="X48" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3434,19 +3560,19 @@
         <v>700</v>
       </c>
       <c r="G54" s="3">
+        <v>700</v>
+      </c>
+      <c r="H54" s="3">
         <v>1000</v>
-      </c>
-      <c r="H54" s="3">
-        <v>800</v>
       </c>
       <c r="I54" s="3">
         <v>800</v>
       </c>
       <c r="J54" s="3">
+        <v>800</v>
+      </c>
+      <c r="K54" s="3">
         <v>700</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1100</v>
       </c>
       <c r="L54" s="3">
         <v>1100</v>
@@ -3458,34 +3584,37 @@
         <v>1100</v>
       </c>
       <c r="O54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P54" s="3">
         <v>1200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>700</v>
-      </c>
-      <c r="U54" s="3">
-        <v>800</v>
       </c>
       <c r="V54" s="3">
         <v>800</v>
       </c>
       <c r="W54" s="3">
+        <v>800</v>
+      </c>
+      <c r="X54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,179 +3664,186 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1800</v>
       </c>
       <c r="I57" s="3">
         <v>1800</v>
       </c>
       <c r="J57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1200</v>
       </c>
       <c r="M57" s="3">
         <v>1200</v>
       </c>
       <c r="N57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>800</v>
-      </c>
-      <c r="T57" s="3">
-        <v>700</v>
       </c>
       <c r="U57" s="3">
         <v>700</v>
       </c>
       <c r="V57" s="3">
+        <v>700</v>
+      </c>
+      <c r="W57" s="3">
         <v>600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="E58" s="3">
         <v>5300</v>
       </c>
       <c r="F58" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G58" s="3">
         <v>5200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>5100</v>
       </c>
       <c r="H58" s="3">
         <v>5100</v>
       </c>
       <c r="I58" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J58" s="3">
         <v>4900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>800</v>
-      </c>
-      <c r="U58" s="3">
-        <v>700</v>
       </c>
       <c r="V58" s="3">
         <v>700</v>
       </c>
       <c r="W58" s="3">
+        <v>700</v>
+      </c>
+      <c r="X58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1000</v>
       </c>
       <c r="L59" s="3">
         <v>1000</v>
       </c>
       <c r="M59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
-      </c>
-      <c r="P59" s="3">
-        <v>400</v>
       </c>
       <c r="Q59" s="3">
         <v>400</v>
@@ -3715,7 +3852,7 @@
         <v>400</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -3727,75 +3864,81 @@
         <v>0</v>
       </c>
       <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E60" s="3">
         <v>10000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3812,11 +3955,11 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>100</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3877,7 +4023,7 @@
         <v>300</v>
       </c>
       <c r="H62" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I62" s="3">
         <v>500</v>
@@ -3886,16 +4032,16 @@
         <v>500</v>
       </c>
       <c r="K62" s="3">
+        <v>500</v>
+      </c>
+      <c r="L62" s="3">
         <v>700</v>
-      </c>
-      <c r="L62" s="3">
-        <v>500</v>
       </c>
       <c r="M62" s="3">
         <v>500</v>
       </c>
       <c r="N62" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O62" s="3">
         <v>400</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E66" s="3">
         <v>10300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-38600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-38100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-37700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-37000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-36400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-35900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-35500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-34300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-33700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-33300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-32900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-32100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-30600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-29500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-29100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-28900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-28600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-28400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-28100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-9900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-9500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-9200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-8700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-8600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-8100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-7600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-6500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-5100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5048,84 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4938,64 +5133,67 @@
         <v>-400</v>
       </c>
       <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-500</v>
       </c>
       <c r="H81" s="3">
         <v>-500</v>
       </c>
       <c r="I81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-400</v>
       </c>
       <c r="M81" s="3">
         <v>-400</v>
       </c>
       <c r="N81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-300</v>
       </c>
       <c r="K89" s="3">
         <v>-300</v>
       </c>
       <c r="L89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-200</v>
       </c>
       <c r="T89" s="3">
         <v>-200</v>
       </c>
       <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
-      </c>
-      <c r="F100" s="3">
-        <v>300</v>
       </c>
       <c r="G100" s="3">
         <v>300</v>
       </c>
       <c r="H100" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I100" s="3">
         <v>200</v>
       </c>
       <c r="J100" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K100" s="3">
         <v>300</v>
       </c>
       <c r="L100" s="3">
+        <v>300</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>1000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
-      </c>
-      <c r="T100" s="3">
-        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6207,26 +6459,26 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-400</v>
       </c>
       <c r="Q102" s="3">
         <v>-400</v>
       </c>
       <c r="R102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S102" s="3">
         <v>500</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
@@ -6234,9 +6486,12 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>GRMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -793,17 +796,17 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>4</v>
@@ -811,26 +814,29 @@
       <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X8" s="3">
         <v>100</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -855,11 +861,11 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -879,11 +885,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,11 +932,11 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -947,12 +956,12 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1006,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
@@ -1024,7 +1037,7 @@
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -1033,20 +1046,20 @@
         <v>0</v>
       </c>
       <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
       <c r="R12" s="3">
         <v>0</v>
       </c>
       <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
         <v>100</v>
       </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
       <c r="U12" s="3">
         <v>0</v>
       </c>
@@ -1054,13 +1067,16 @@
         <v>0</v>
       </c>
       <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
         <v>100</v>
       </c>
-      <c r="X12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1145,32 +1164,32 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>100</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1189,14 +1208,17 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1311,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1298,49 +1324,49 @@
         <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
         <v>500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1200</v>
       </c>
       <c r="Q17" s="3">
         <v>1200</v>
       </c>
       <c r="R17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
-      </c>
-      <c r="T17" s="3">
-        <v>200</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
@@ -1354,8 +1380,11 @@
       <c r="X17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1366,64 +1395,67 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1460,11 +1493,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1480,17 +1513,17 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
@@ -1498,26 +1531,29 @@
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1528,13 +1564,13 @@
         <v>-200</v>
       </c>
       <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-300</v>
       </c>
       <c r="I21" s="3">
         <v>-300</v>
@@ -1543,54 +1579,57 @@
         <v>-300</v>
       </c>
       <c r="K21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1611,10 +1650,10 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
@@ -1623,7 +1662,7 @@
         <v>200</v>
       </c>
       <c r="O22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>300</v>
@@ -1632,96 +1671,102 @@
         <v>300</v>
       </c>
       <c r="R22" s="3">
+        <v>300</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E23" s="3">
         <v>-400</v>
       </c>
       <c r="F23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-500</v>
       </c>
       <c r="I23" s="3">
         <v>-500</v>
       </c>
       <c r="J23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-400</v>
       </c>
       <c r="N23" s="3">
         <v>-400</v>
       </c>
       <c r="O23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P23" s="3">
         <v>-800</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-1500</v>
       </c>
       <c r="Q23" s="3">
         <v>-1500</v>
       </c>
       <c r="R23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-200</v>
       </c>
       <c r="V23" s="3">
         <v>-200</v>
       </c>
       <c r="W23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E26" s="3">
         <v>-400</v>
       </c>
       <c r="F26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-500</v>
       </c>
       <c r="I26" s="3">
         <v>-500</v>
       </c>
       <c r="J26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-400</v>
       </c>
       <c r="N26" s="3">
         <v>-400</v>
       </c>
       <c r="O26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P26" s="3">
         <v>-800</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-1500</v>
       </c>
       <c r="Q26" s="3">
         <v>-1500</v>
       </c>
       <c r="R26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-200</v>
       </c>
       <c r="V26" s="3">
         <v>-200</v>
       </c>
       <c r="W26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E27" s="3">
         <v>-400</v>
       </c>
       <c r="F27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-500</v>
       </c>
       <c r="I27" s="3">
         <v>-500</v>
       </c>
       <c r="J27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-400</v>
       </c>
       <c r="N27" s="3">
         <v>-400</v>
       </c>
       <c r="O27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2276,11 +2345,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2296,17 +2365,17 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
@@ -2314,94 +2383,100 @@
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E33" s="3">
         <v>-400</v>
       </c>
       <c r="F33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-500</v>
       </c>
       <c r="I33" s="3">
         <v>-500</v>
       </c>
       <c r="J33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-400</v>
       </c>
       <c r="N33" s="3">
         <v>-400</v>
       </c>
       <c r="O33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E35" s="3">
         <v>-400</v>
       </c>
       <c r="F35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-500</v>
       </c>
       <c r="I35" s="3">
         <v>-500</v>
       </c>
       <c r="J35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-400</v>
       </c>
       <c r="N35" s="3">
         <v>-400</v>
       </c>
       <c r="O35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2746,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2700,23 +2786,23 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
@@ -2727,10 +2813,13 @@
         <v>0</v>
       </c>
       <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2850,23 +2942,26 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
+      <c r="T43" s="3">
+        <v>0</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,13 +3028,16 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2948,22 +3046,22 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
@@ -2972,25 +3070,25 @@
         <v>200</v>
       </c>
       <c r="O45" s="3">
+        <v>200</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>200</v>
       </c>
       <c r="S45" s="3">
+        <v>200</v>
+      </c>
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
-      </c>
-      <c r="U45" s="3">
-        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
@@ -2999,15 +3097,18 @@
         <v>100</v>
       </c>
       <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -3016,22 +3117,22 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
       </c>
       <c r="K46" s="3">
+        <v>200</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
@@ -3043,22 +3144,22 @@
         <v>200</v>
       </c>
       <c r="P46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>200</v>
-      </c>
-      <c r="U46" s="3">
-        <v>100</v>
       </c>
       <c r="V46" s="3">
         <v>100</v>
@@ -3067,10 +3168,13 @@
         <v>100</v>
       </c>
       <c r="X46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3089,8 +3193,8 @@
       <c r="H47" s="3">
         <v>0</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -3107,8 +3211,8 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3167,7 +3274,7 @@
         <v>600</v>
       </c>
       <c r="L48" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M48" s="3">
         <v>900</v>
@@ -3191,7 +3298,7 @@
         <v>900</v>
       </c>
       <c r="T48" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="U48" s="3">
         <v>700</v>
@@ -3203,10 +3310,13 @@
         <v>700</v>
       </c>
       <c r="X48" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y48" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,13 +3667,16 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E54" s="3">
         <v>700</v>
@@ -3563,19 +3688,19 @@
         <v>700</v>
       </c>
       <c r="H54" s="3">
+        <v>700</v>
+      </c>
+      <c r="I54" s="3">
         <v>1000</v>
-      </c>
-      <c r="I54" s="3">
-        <v>800</v>
       </c>
       <c r="J54" s="3">
         <v>800</v>
       </c>
       <c r="K54" s="3">
+        <v>800</v>
+      </c>
+      <c r="L54" s="3">
         <v>700</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1100</v>
       </c>
       <c r="M54" s="3">
         <v>1100</v>
@@ -3587,34 +3712,37 @@
         <v>1100</v>
       </c>
       <c r="P54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>700</v>
-      </c>
-      <c r="V54" s="3">
-        <v>800</v>
       </c>
       <c r="W54" s="3">
         <v>800</v>
       </c>
       <c r="X54" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,188 +3794,195 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1800</v>
       </c>
       <c r="J57" s="3">
         <v>1800</v>
       </c>
       <c r="K57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1200</v>
       </c>
       <c r="N57" s="3">
         <v>1200</v>
       </c>
       <c r="O57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P57" s="3">
         <v>1100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
-      </c>
-      <c r="U57" s="3">
-        <v>700</v>
       </c>
       <c r="V57" s="3">
         <v>700</v>
       </c>
       <c r="W57" s="3">
+        <v>700</v>
+      </c>
+      <c r="X57" s="3">
         <v>600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E58" s="3">
         <v>5500</v>
-      </c>
-      <c r="E58" s="3">
-        <v>5300</v>
       </c>
       <c r="F58" s="3">
         <v>5300</v>
       </c>
       <c r="G58" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H58" s="3">
         <v>5200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>5100</v>
       </c>
       <c r="I58" s="3">
         <v>5100</v>
       </c>
       <c r="J58" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K58" s="3">
         <v>4900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>800</v>
-      </c>
-      <c r="V58" s="3">
-        <v>700</v>
       </c>
       <c r="W58" s="3">
         <v>700</v>
       </c>
       <c r="X58" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E59" s="3">
         <v>3000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1000</v>
       </c>
       <c r="M59" s="3">
         <v>1000</v>
       </c>
       <c r="N59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>400</v>
       </c>
       <c r="R59" s="3">
         <v>400</v>
@@ -3855,7 +3991,7 @@
         <v>400</v>
       </c>
       <c r="T59" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -3867,78 +4003,84 @@
         <v>0</v>
       </c>
       <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E60" s="3">
         <v>10300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3958,11 +4100,11 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>100</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4026,7 +4171,7 @@
         <v>300</v>
       </c>
       <c r="I62" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J62" s="3">
         <v>500</v>
@@ -4035,16 +4180,16 @@
         <v>500</v>
       </c>
       <c r="L62" s="3">
+        <v>500</v>
+      </c>
+      <c r="M62" s="3">
         <v>700</v>
-      </c>
-      <c r="M62" s="3">
-        <v>500</v>
       </c>
       <c r="N62" s="3">
         <v>500</v>
       </c>
       <c r="O62" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P62" s="3">
         <v>400</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E66" s="3">
         <v>10600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-39000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-38600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-38100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-37700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-37000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-36400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-35900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-35500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-34300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-33700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-33300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-32900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-32100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-30600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-29500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-29100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-28900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-28600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-28400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-28100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-10200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-9900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-9500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-9200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-8700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-8600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-8100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-7600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-6500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-5500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-5100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E81" s="3">
         <v>-400</v>
       </c>
       <c r="F81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-500</v>
       </c>
       <c r="I81" s="3">
         <v>-500</v>
       </c>
       <c r="J81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-400</v>
       </c>
       <c r="N81" s="3">
         <v>-400</v>
       </c>
       <c r="O81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5635,67 +5851,70 @@
         <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-200</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
       </c>
       <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-300</v>
       </c>
       <c r="L89" s="3">
         <v>-300</v>
       </c>
       <c r="M89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-200</v>
       </c>
       <c r="U89" s="3">
         <v>-200</v>
       </c>
       <c r="V89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6299,67 +6544,70 @@
         <v>300</v>
       </c>
       <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>300</v>
       </c>
       <c r="H100" s="3">
         <v>300</v>
       </c>
       <c r="I100" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J100" s="3">
         <v>200</v>
       </c>
       <c r="K100" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L100" s="3">
         <v>300</v>
       </c>
       <c r="M100" s="3">
+        <v>300</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>1000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
-      </c>
-      <c r="U100" s="3">
-        <v>100</v>
       </c>
       <c r="V100" s="3">
         <v>100</v>
       </c>
       <c r="W100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X100" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6462,26 +6713,26 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-400</v>
       </c>
       <c r="R102" s="3">
         <v>-400</v>
       </c>
       <c r="S102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T102" s="3">
         <v>500</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -6489,9 +6740,12 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>GRMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,115 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -799,44 +807,50 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
+      <c r="R8" s="3">
+        <v>0</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="3">
         <v>100</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -864,14 +878,14 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -888,14 +902,14 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
+      <c r="V9" s="3">
+        <v>0</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>4</v>
@@ -906,8 +920,14 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,14 +955,14 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
@@ -959,15 +979,15 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
@@ -977,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1022,61 +1050,67 @@
         <v>0</v>
       </c>
       <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
       </c>
       <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
       <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
         <v>100</v>
       </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
       <c r="W12" s="3">
         <v>0</v>
       </c>
       <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
         <v>100</v>
       </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1167,35 +1207,35 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1211,22 +1251,28 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,8 +1364,10 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1327,52 +1381,52 @@
         <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H17" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
       </c>
       <c r="J17" s="3">
+        <v>500</v>
+      </c>
+      <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1200</v>
-      </c>
-      <c r="S17" s="3">
-        <v>200</v>
-      </c>
-      <c r="T17" s="3">
-        <v>400</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
       </c>
       <c r="V17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="W17" s="3">
         <v>200</v>
@@ -1383,8 +1437,14 @@
       <c r="Y17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1398,64 +1458,70 @@
         <v>-200</v>
       </c>
       <c r="G18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="H18" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="I18" s="3">
         <v>-300</v>
       </c>
       <c r="J18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1493,17 +1561,17 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1516,126 +1584,138 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
+      <c r="X20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-500</v>
       </c>
       <c r="I21" s="3">
         <v>-300</v>
       </c>
       <c r="J21" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="K21" s="3">
         <v>-300</v>
       </c>
       <c r="L21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
@@ -1653,120 +1733,132 @@
         <v>200</v>
       </c>
       <c r="L22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
       </c>
       <c r="N22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
       </c>
       <c r="P22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R22" s="3">
         <v>300</v>
       </c>
       <c r="S22" s="3">
+        <v>300</v>
+      </c>
+      <c r="T22" s="3">
+        <v>300</v>
+      </c>
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>4</v>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-700</v>
       </c>
       <c r="I23" s="3">
         <v>-500</v>
       </c>
       <c r="J23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-300</v>
       </c>
       <c r="V23" s="3">
         <v>-200</v>
       </c>
       <c r="W23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X23" s="3">
         <v>-200</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-100</v>
       </c>
       <c r="Y23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,135 +2005,147 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-700</v>
       </c>
       <c r="I26" s="3">
         <v>-500</v>
       </c>
       <c r="J26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-300</v>
       </c>
       <c r="V26" s="3">
         <v>-200</v>
       </c>
       <c r="W26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X26" s="3">
         <v>-200</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-100</v>
       </c>
       <c r="Y26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-700</v>
       </c>
       <c r="I27" s="3">
         <v>-500</v>
       </c>
       <c r="J27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-300</v>
       </c>
       <c r="V27" s="3">
         <v>-200</v>
@@ -2049,8 +2159,14 @@
       <c r="Y27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2345,17 +2485,17 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2368,100 +2508,106 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
+      <c r="X32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-700</v>
       </c>
       <c r="I33" s="3">
         <v>-500</v>
       </c>
       <c r="J33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-300</v>
       </c>
       <c r="V33" s="3">
         <v>-200</v>
@@ -2475,8 +2621,14 @@
       <c r="Y33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,64 +2698,70 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-700</v>
       </c>
       <c r="I35" s="3">
         <v>-500</v>
       </c>
       <c r="J35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-300</v>
       </c>
       <c r="V35" s="3">
         <v>-200</v>
@@ -2617,84 +2775,96 @@
       <c r="Y35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,8 +2919,10 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2789,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2798,17 +2972,17 @@
         <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
@@ -2816,10 +2990,16 @@
         <v>0</v>
       </c>
       <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +3069,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2945,23 +3131,29 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
-      <c r="X43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3223,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3040,25 +3238,25 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -3067,25 +3265,25 @@
         <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
       </c>
       <c r="P45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
-      </c>
-      <c r="S45" s="3">
-        <v>200</v>
-      </c>
-      <c r="T45" s="3">
-        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>200</v>
@@ -3094,16 +3292,22 @@
         <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
       </c>
       <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3111,34 +3315,34 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>200</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
       </c>
       <c r="N46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
@@ -3147,34 +3351,40 @@
         <v>200</v>
       </c>
       <c r="Q46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
       </c>
       <c r="S46" s="3">
+        <v>300</v>
+      </c>
+      <c r="T46" s="3">
+        <v>200</v>
+      </c>
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>200</v>
-      </c>
-      <c r="V46" s="3">
-        <v>100</v>
-      </c>
-      <c r="W46" s="3">
-        <v>100</v>
       </c>
       <c r="X46" s="3">
         <v>100</v>
       </c>
       <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3196,11 +3406,11 @@
       <c r="I47" s="3">
         <v>0</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
@@ -3214,11 +3424,11 @@
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3244,13 +3454,19 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>600</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E48" s="3">
         <v>600</v>
@@ -3277,10 +3493,10 @@
         <v>600</v>
       </c>
       <c r="M48" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="N48" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="O48" s="3">
         <v>900</v>
@@ -3301,10 +3517,10 @@
         <v>900</v>
       </c>
       <c r="U48" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="V48" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="W48" s="3">
         <v>700</v>
@@ -3313,10 +3529,16 @@
         <v>700</v>
       </c>
       <c r="Y48" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA48" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,19 +3916,25 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E54" s="3">
         <v>700</v>
       </c>
       <c r="F54" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G54" s="3">
         <v>700</v>
@@ -3691,22 +3943,22 @@
         <v>700</v>
       </c>
       <c r="I54" s="3">
+        <v>700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>700</v>
+      </c>
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>700</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1100</v>
       </c>
       <c r="O54" s="3">
         <v>1100</v>
@@ -3715,7 +3967,7 @@
         <v>1100</v>
       </c>
       <c r="Q54" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="R54" s="3">
         <v>1100</v>
@@ -3724,25 +3976,31 @@
         <v>1200</v>
       </c>
       <c r="T54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V54" s="3">
         <v>1500</v>
-      </c>
-      <c r="U54" s="3">
-        <v>800</v>
-      </c>
-      <c r="V54" s="3">
-        <v>700</v>
       </c>
       <c r="W54" s="3">
         <v>800</v>
       </c>
       <c r="X54" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y54" s="3">
         <v>800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +4055,10 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3804,200 +4066,212 @@
         <v>1900</v>
       </c>
       <c r="E57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1900</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>2000</v>
       </c>
       <c r="J57" s="3">
         <v>1800</v>
       </c>
       <c r="K57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1100</v>
       </c>
       <c r="Q57" s="3">
         <v>1200</v>
       </c>
       <c r="R57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F58" s="3">
         <v>5600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>5500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>5300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>5300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>5200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>5100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>5100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>4700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>4300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>4000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>3200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>2000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F59" s="3">
         <v>3300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
-      </c>
-      <c r="R59" s="3">
-        <v>400</v>
-      </c>
-      <c r="S59" s="3">
-        <v>400</v>
       </c>
       <c r="T59" s="3">
         <v>400</v>
       </c>
       <c r="U59" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="V59" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4006,81 +4280,93 @@
         <v>0</v>
       </c>
       <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F60" s="3">
         <v>10700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>10300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>10000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>9600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>9300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>9100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>8600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4103,14 +4389,14 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4150,8 +4436,14 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4174,28 +4466,28 @@
         <v>300</v>
       </c>
       <c r="J62" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K62" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L62" s="3">
         <v>500</v>
       </c>
       <c r="M62" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N62" s="3">
         <v>500</v>
       </c>
       <c r="O62" s="3">
+        <v>700</v>
+      </c>
+      <c r="P62" s="3">
         <v>500</v>
       </c>
-      <c r="P62" s="3">
-        <v>400</v>
-      </c>
       <c r="Q62" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R62" s="3">
         <v>400</v>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F66" s="3">
         <v>11100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>10600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>10300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>9600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>9400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-39400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-39000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-38600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-38100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-37700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-37000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-36400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-35900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-35500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-34300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-33700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-33300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-32900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-32100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-30600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-29500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-29100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-28900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-28600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-28400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-28100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-10600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-10200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-9900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-9500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-9200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-8700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-8600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-8100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-7600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-6500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-5900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-5500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-4400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-3000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-2100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-1500</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="X76" s="3">
-        <v>-1100</v>
       </c>
       <c r="Y76" s="3">
         <v>-1300</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>-1300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,140 +5620,152 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-700</v>
       </c>
       <c r="I81" s="3">
         <v>-500</v>
       </c>
       <c r="J81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-300</v>
       </c>
       <c r="V81" s="3">
         <v>-200</v>
@@ -5389,8 +5779,14 @@
       <c r="Y81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,16 +5812,18 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,70 +6270,76 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-300</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
       </c>
       <c r="J89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>-200</v>
@@ -5913,8 +6347,14 @@
       <c r="Y89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +7021,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>1000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +7175,14 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6716,36 +7220,42 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
         <v>-100</v>
       </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>500</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>GRMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -813,17 +817,17 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
+      <c r="P8" s="3">
+        <v>0</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>4</v>
@@ -831,26 +835,29 @@
       <c r="U8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="3">
         <v>200</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="3">
         <v>100</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -884,11 +891,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
@@ -908,11 +915,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>4</v>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>4</v>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -961,11 +971,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
@@ -985,12 +995,12 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1056,16 +1070,16 @@
         <v>0</v>
       </c>
       <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
@@ -1074,7 +1088,7 @@
         <v>100</v>
       </c>
       <c r="P12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
@@ -1083,20 +1097,20 @@
         <v>0</v>
       </c>
       <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
         <v>100</v>
       </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
       <c r="U12" s="3">
         <v>0</v>
       </c>
       <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
         <v>100</v>
       </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
       <c r="X12" s="3">
         <v>0</v>
       </c>
@@ -1104,13 +1118,16 @@
         <v>0</v>
       </c>
       <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
         <v>100</v>
       </c>
-      <c r="AA12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1213,32 +1233,32 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>100</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1257,14 +1277,17 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1274,8 +1297,8 @@
       <c r="E15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,13 +1392,14 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -1387,49 +1414,49 @@
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
       <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
         <v>500</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1200</v>
       </c>
       <c r="T17" s="3">
         <v>1200</v>
       </c>
       <c r="U17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
-      </c>
-      <c r="W17" s="3">
-        <v>200</v>
       </c>
       <c r="X17" s="3">
         <v>200</v>
@@ -1443,8 +1470,11 @@
       <c r="AA17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1464,64 +1494,67 @@
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-200</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1561,20 +1595,20 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1590,17 +1624,17 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>4</v>
@@ -1608,26 +1642,29 @@
       <c r="U20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1637,23 +1674,23 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-200</v>
       </c>
       <c r="H21" s="3">
         <v>-200</v>
       </c>
       <c r="I21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-300</v>
       </c>
       <c r="L21" s="3">
         <v>-300</v>
@@ -1662,63 +1699,66 @@
         <v>-300</v>
       </c>
       <c r="N21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
       </c>
       <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
         <v>600</v>
-      </c>
-      <c r="G22" s="3">
-        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
@@ -1739,10 +1779,10 @@
         <v>200</v>
       </c>
       <c r="N22" s="3">
+        <v>200</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>200</v>
@@ -1751,7 +1791,7 @@
         <v>200</v>
       </c>
       <c r="R22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S22" s="3">
         <v>300</v>
@@ -1760,105 +1800,111 @@
         <v>300</v>
       </c>
       <c r="U22" s="3">
+        <v>300</v>
+      </c>
+      <c r="V22" s="3">
         <v>200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F23" s="3">
         <v>-500</v>
       </c>
       <c r="G23" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="H23" s="3">
         <v>-400</v>
       </c>
       <c r="I23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-500</v>
       </c>
       <c r="L23" s="3">
         <v>-500</v>
       </c>
       <c r="M23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-400</v>
       </c>
       <c r="Q23" s="3">
         <v>-400</v>
       </c>
       <c r="R23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S23" s="3">
         <v>-800</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-1500</v>
       </c>
       <c r="T23" s="3">
         <v>-1500</v>
       </c>
       <c r="U23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-200</v>
       </c>
       <c r="Y23" s="3">
         <v>-200</v>
       </c>
       <c r="Z23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F26" s="3">
         <v>-500</v>
       </c>
       <c r="G26" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="H26" s="3">
         <v>-400</v>
       </c>
       <c r="I26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-500</v>
       </c>
       <c r="L26" s="3">
         <v>-500</v>
       </c>
       <c r="M26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-400</v>
       </c>
       <c r="Q26" s="3">
         <v>-400</v>
       </c>
       <c r="R26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S26" s="3">
         <v>-800</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-1500</v>
       </c>
       <c r="T26" s="3">
         <v>-1500</v>
       </c>
       <c r="U26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-200</v>
       </c>
       <c r="Y26" s="3">
         <v>-200</v>
       </c>
       <c r="Z26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F27" s="3">
         <v>-500</v>
       </c>
       <c r="G27" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="H27" s="3">
         <v>-400</v>
       </c>
       <c r="I27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-500</v>
       </c>
       <c r="L27" s="3">
         <v>-500</v>
       </c>
       <c r="M27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-400</v>
       </c>
       <c r="Q27" s="3">
         <v>-400</v>
       </c>
       <c r="R27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2485,20 +2555,20 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2514,17 +2584,17 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>4</v>
@@ -2532,103 +2602,109 @@
       <c r="U32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F33" s="3">
         <v>-500</v>
       </c>
       <c r="G33" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="H33" s="3">
         <v>-400</v>
       </c>
       <c r="I33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-500</v>
       </c>
       <c r="L33" s="3">
         <v>-500</v>
       </c>
       <c r="M33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-400</v>
       </c>
       <c r="Q33" s="3">
         <v>-400</v>
       </c>
       <c r="R33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F35" s="3">
         <v>-500</v>
       </c>
       <c r="G35" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="H35" s="3">
         <v>-400</v>
       </c>
       <c r="I35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-500</v>
       </c>
       <c r="L35" s="3">
         <v>-500</v>
       </c>
       <c r="M35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-400</v>
       </c>
       <c r="Q35" s="3">
         <v>-400</v>
       </c>
       <c r="R35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2969,23 +3056,23 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>100</v>
       </c>
       <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
@@ -2996,10 +3083,13 @@
         <v>0</v>
       </c>
       <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3137,23 +3230,26 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
+      <c r="W43" s="3">
+        <v>0</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y43" s="3">
-        <v>0</v>
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,13 +3325,16 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -3244,7 +3343,7 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3253,22 +3352,22 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
-      </c>
-      <c r="O45" s="3">
-        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
@@ -3277,25 +3376,25 @@
         <v>200</v>
       </c>
       <c r="R45" s="3">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>300</v>
-      </c>
-      <c r="T45" s="3">
-        <v>200</v>
       </c>
       <c r="U45" s="3">
         <v>200</v>
       </c>
       <c r="V45" s="3">
+        <v>200</v>
+      </c>
+      <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>200</v>
-      </c>
-      <c r="X45" s="3">
-        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>100</v>
@@ -3304,15 +3403,18 @@
         <v>100</v>
       </c>
       <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -3321,7 +3423,7 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -3330,22 +3432,22 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
-      </c>
-      <c r="L46" s="3">
-        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
       </c>
       <c r="N46" s="3">
+        <v>200</v>
+      </c>
+      <c r="O46" s="3">
         <v>100</v>
-      </c>
-      <c r="O46" s="3">
-        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
@@ -3357,22 +3459,22 @@
         <v>200</v>
       </c>
       <c r="S46" s="3">
+        <v>200</v>
+      </c>
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>200</v>
-      </c>
-      <c r="X46" s="3">
-        <v>100</v>
       </c>
       <c r="Y46" s="3">
         <v>100</v>
@@ -3381,10 +3483,13 @@
         <v>100</v>
       </c>
       <c r="AA46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3412,8 +3517,8 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
@@ -3430,8 +3535,8 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3460,13 +3565,16 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>600</v>
@@ -3499,7 +3607,7 @@
         <v>600</v>
       </c>
       <c r="O48" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="P48" s="3">
         <v>900</v>
@@ -3523,7 +3631,7 @@
         <v>900</v>
       </c>
       <c r="W48" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="X48" s="3">
         <v>700</v>
@@ -3535,10 +3643,13 @@
         <v>700</v>
       </c>
       <c r="AA48" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB48" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4045,11 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3934,10 +4060,10 @@
         <v>700</v>
       </c>
       <c r="F54" s="3">
+        <v>700</v>
+      </c>
+      <c r="G54" s="3">
         <v>800</v>
-      </c>
-      <c r="G54" s="3">
-        <v>700</v>
       </c>
       <c r="H54" s="3">
         <v>700</v>
@@ -3949,19 +4075,19 @@
         <v>700</v>
       </c>
       <c r="K54" s="3">
+        <v>700</v>
+      </c>
+      <c r="L54" s="3">
         <v>1000</v>
-      </c>
-      <c r="L54" s="3">
-        <v>800</v>
       </c>
       <c r="M54" s="3">
         <v>800</v>
       </c>
       <c r="N54" s="3">
+        <v>800</v>
+      </c>
+      <c r="O54" s="3">
         <v>700</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1100</v>
       </c>
       <c r="P54" s="3">
         <v>1100</v>
@@ -3973,34 +4099,37 @@
         <v>1100</v>
       </c>
       <c r="S54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T54" s="3">
         <v>1200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>700</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>800</v>
       </c>
       <c r="Z54" s="3">
         <v>800</v>
       </c>
       <c r="AA54" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4072,70 +4203,73 @@
         <v>1900</v>
       </c>
       <c r="G57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1800</v>
       </c>
       <c r="M57" s="3">
         <v>1800</v>
       </c>
       <c r="N57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O57" s="3">
         <v>1700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1200</v>
       </c>
       <c r="Q57" s="3">
         <v>1200</v>
       </c>
       <c r="R57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S57" s="3">
         <v>1100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>800</v>
-      </c>
-      <c r="X57" s="3">
-        <v>700</v>
       </c>
       <c r="Y57" s="3">
         <v>700</v>
       </c>
       <c r="Z57" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA57" s="3">
         <v>600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4146,126 +4280,129 @@
         <v>5700</v>
       </c>
       <c r="F58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G58" s="3">
         <v>5600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5500</v>
-      </c>
-      <c r="H58" s="3">
-        <v>5300</v>
       </c>
       <c r="I58" s="3">
         <v>5300</v>
       </c>
       <c r="J58" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K58" s="3">
         <v>5200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>5100</v>
       </c>
       <c r="L58" s="3">
         <v>5100</v>
       </c>
       <c r="M58" s="3">
+        <v>5100</v>
+      </c>
+      <c r="N58" s="3">
         <v>4900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>800</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>700</v>
       </c>
       <c r="Z58" s="3">
         <v>700</v>
       </c>
       <c r="AA58" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E59" s="3">
         <v>3800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1000</v>
       </c>
       <c r="P59" s="3">
         <v>1000</v>
       </c>
       <c r="Q59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R59" s="3">
         <v>800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>500</v>
-      </c>
-      <c r="T59" s="3">
-        <v>400</v>
       </c>
       <c r="U59" s="3">
         <v>400</v>
@@ -4274,7 +4411,7 @@
         <v>400</v>
       </c>
       <c r="W59" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
@@ -4286,87 +4423,93 @@
         <v>0</v>
       </c>
       <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E60" s="3">
         <v>11400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4395,11 +4538,11 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4472,7 +4618,7 @@
         <v>300</v>
       </c>
       <c r="L62" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M62" s="3">
         <v>500</v>
@@ -4481,16 +4627,16 @@
         <v>500</v>
       </c>
       <c r="O62" s="3">
+        <v>500</v>
+      </c>
+      <c r="P62" s="3">
         <v>700</v>
-      </c>
-      <c r="P62" s="3">
-        <v>500</v>
       </c>
       <c r="Q62" s="3">
         <v>500</v>
       </c>
       <c r="R62" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S62" s="3">
         <v>400</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>40200</v>
+        <v>-40600</v>
       </c>
       <c r="E72" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-39900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-39400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-39000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-38600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-38100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-37700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-37000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-36400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-35900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-35500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-34300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-33700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-33300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-32900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-32100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-30600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-29500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-29100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-28900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-28600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-28400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-28100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10700</v>
+        <v>-11600</v>
       </c>
       <c r="E76" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-10900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-10600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-10200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-9900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-9500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-9200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-8700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-8600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-8100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-7600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-6500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-5500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-5100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-4400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F81" s="3">
         <v>-500</v>
       </c>
       <c r="G81" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="H81" s="3">
         <v>-400</v>
       </c>
       <c r="I81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-500</v>
       </c>
       <c r="L81" s="3">
         <v>-500</v>
       </c>
       <c r="M81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-400</v>
       </c>
       <c r="Q81" s="3">
         <v>-400</v>
       </c>
       <c r="R81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5825,8 +6024,8 @@
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6288,73 +6505,76 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-300</v>
       </c>
       <c r="H89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-200</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-300</v>
       </c>
       <c r="O89" s="3">
         <v>-300</v>
       </c>
       <c r="P89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-200</v>
       </c>
       <c r="X89" s="3">
         <v>-200</v>
       </c>
       <c r="Y89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7039,73 +7285,76 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>300</v>
       </c>
       <c r="H100" s="3">
+        <v>300</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>300</v>
       </c>
       <c r="K100" s="3">
         <v>300</v>
       </c>
       <c r="L100" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M100" s="3">
         <v>200</v>
       </c>
       <c r="N100" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O100" s="3">
         <v>300</v>
       </c>
       <c r="P100" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>1000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
-      </c>
-      <c r="X100" s="3">
-        <v>100</v>
       </c>
       <c r="Y100" s="3">
         <v>100</v>
       </c>
       <c r="Z100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA100" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7226,26 +7478,26 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
-      </c>
-      <c r="T102" s="3">
-        <v>-400</v>
       </c>
       <c r="U102" s="3">
         <v>-400</v>
       </c>
       <c r="V102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W102" s="3">
         <v>500</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
@@ -7253,9 +7505,12 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>GRMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,122 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -820,17 +823,17 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
+      <c r="Q8" s="3">
+        <v>0</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>4</v>
@@ -838,26 +841,29 @@
       <c r="V8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X8" s="3">
         <v>200</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AA8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="3">
         <v>100</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -894,11 +900,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
@@ -918,11 +924,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>4</v>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>4</v>
@@ -936,8 +942,11 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -974,11 +983,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
@@ -998,12 +1007,12 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3">
         <v>200</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1016,8 +1025,11 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1073,16 +1086,16 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
@@ -1091,7 +1104,7 @@
         <v>100</v>
       </c>
       <c r="Q12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R12" s="3">
         <v>0</v>
@@ -1100,20 +1113,20 @@
         <v>0</v>
       </c>
       <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
         <v>100</v>
       </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
       <c r="V12" s="3">
         <v>0</v>
       </c>
       <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
         <v>100</v>
       </c>
-      <c r="X12" s="3">
-        <v>0</v>
-      </c>
       <c r="Y12" s="3">
         <v>0</v>
       </c>
@@ -1121,13 +1134,16 @@
         <v>0</v>
       </c>
       <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
         <v>100</v>
       </c>
-      <c r="AB12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,13 +1222,16 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1236,32 +1255,32 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>100</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1280,14 +1299,17 @@
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1300,8 +1322,8 @@
       <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,16 +1418,17 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
-      </c>
-      <c r="E17" s="3">
-        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
@@ -1417,49 +1443,49 @@
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
       <c r="S17" s="3">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
         <v>500</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1200</v>
       </c>
       <c r="U17" s="3">
         <v>1200</v>
       </c>
       <c r="V17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
-      </c>
-      <c r="X17" s="3">
-        <v>200</v>
       </c>
       <c r="Y17" s="3">
         <v>200</v>
@@ -1473,8 +1499,11 @@
       <c r="AB17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,7 +1511,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
@@ -1497,64 +1526,67 @@
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-100</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1615,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1598,20 +1631,20 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1627,17 +1660,17 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>4</v>
@@ -1645,26 +1678,29 @@
       <c r="V20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1677,23 +1713,23 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-200</v>
       </c>
       <c r="I21" s="3">
         <v>-200</v>
       </c>
       <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-300</v>
       </c>
       <c r="M21" s="3">
         <v>-300</v>
@@ -1702,49 +1738,52 @@
         <v>-300</v>
       </c>
       <c r="O21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-100</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1758,10 +1797,10 @@
         <v>200</v>
       </c>
       <c r="G22" s="3">
+        <v>200</v>
+      </c>
+      <c r="H22" s="3">
         <v>600</v>
-      </c>
-      <c r="H22" s="3">
-        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
@@ -1782,10 +1821,10 @@
         <v>200</v>
       </c>
       <c r="O22" s="3">
+        <v>200</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
-      </c>
-      <c r="P22" s="3">
-        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>200</v>
@@ -1794,7 +1833,7 @@
         <v>200</v>
       </c>
       <c r="S22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T22" s="3">
         <v>300</v>
@@ -1803,108 +1842,114 @@
         <v>300</v>
       </c>
       <c r="V22" s="3">
+        <v>300</v>
+      </c>
+      <c r="W22" s="3">
         <v>200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>100</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-500</v>
       </c>
       <c r="G23" s="3">
         <v>-500</v>
       </c>
       <c r="H23" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I23" s="3">
         <v>-400</v>
       </c>
       <c r="J23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-500</v>
       </c>
       <c r="M23" s="3">
         <v>-500</v>
       </c>
       <c r="N23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-400</v>
       </c>
       <c r="R23" s="3">
         <v>-400</v>
       </c>
       <c r="S23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T23" s="3">
         <v>-800</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-1500</v>
       </c>
       <c r="U23" s="3">
         <v>-1500</v>
       </c>
       <c r="V23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-200</v>
       </c>
       <c r="Z23" s="3">
         <v>-200</v>
       </c>
       <c r="AA23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2028,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-500</v>
       </c>
       <c r="G26" s="3">
         <v>-500</v>
       </c>
       <c r="H26" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I26" s="3">
         <v>-400</v>
       </c>
       <c r="J26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-500</v>
       </c>
       <c r="M26" s="3">
         <v>-500</v>
       </c>
       <c r="N26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-400</v>
       </c>
       <c r="R26" s="3">
         <v>-400</v>
       </c>
       <c r="S26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T26" s="3">
         <v>-800</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-1500</v>
       </c>
       <c r="U26" s="3">
         <v>-1500</v>
       </c>
       <c r="V26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-200</v>
       </c>
       <c r="Z26" s="3">
         <v>-200</v>
       </c>
       <c r="AA26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-500</v>
       </c>
       <c r="G27" s="3">
         <v>-500</v>
       </c>
       <c r="H27" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I27" s="3">
         <v>-400</v>
       </c>
       <c r="J27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-500</v>
       </c>
       <c r="M27" s="3">
         <v>-500</v>
       </c>
       <c r="N27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-400</v>
       </c>
       <c r="R27" s="3">
         <v>-400</v>
       </c>
       <c r="S27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2609,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2558,20 +2627,20 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2587,17 +2656,17 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>4</v>
@@ -2605,106 +2674,112 @@
       <c r="V32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-500</v>
       </c>
       <c r="G33" s="3">
         <v>-500</v>
       </c>
       <c r="H33" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I33" s="3">
         <v>-400</v>
       </c>
       <c r="J33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-500</v>
       </c>
       <c r="M33" s="3">
         <v>-500</v>
       </c>
       <c r="N33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-400</v>
       </c>
       <c r="R33" s="3">
         <v>-400</v>
       </c>
       <c r="S33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-500</v>
       </c>
       <c r="G35" s="3">
         <v>-500</v>
       </c>
       <c r="H35" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I35" s="3">
         <v>-400</v>
       </c>
       <c r="J35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-500</v>
       </c>
       <c r="M35" s="3">
         <v>-500</v>
       </c>
       <c r="N35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-400</v>
       </c>
       <c r="R35" s="3">
         <v>-400</v>
       </c>
       <c r="S35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3093,9 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3059,23 +3145,23 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
         <v>500</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
@@ -3086,10 +3172,13 @@
         <v>0</v>
       </c>
       <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3257,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3233,23 +3325,26 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
+      <c r="X43" s="3">
+        <v>0</v>
       </c>
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z43" s="3">
-        <v>0</v>
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,16 +3423,19 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -3346,7 +3444,7 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -3355,22 +3453,22 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
-      </c>
-      <c r="P45" s="3">
-        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
@@ -3379,25 +3477,25 @@
         <v>200</v>
       </c>
       <c r="S45" s="3">
+        <v>200</v>
+      </c>
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>300</v>
-      </c>
-      <c r="U45" s="3">
-        <v>200</v>
       </c>
       <c r="V45" s="3">
         <v>200</v>
       </c>
       <c r="W45" s="3">
+        <v>200</v>
+      </c>
+      <c r="X45" s="3">
         <v>100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>200</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>100</v>
       </c>
       <c r="Z45" s="3">
         <v>100</v>
@@ -3406,18 +3504,21 @@
         <v>100</v>
       </c>
       <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
@@ -3426,7 +3527,7 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -3435,22 +3536,22 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
-      </c>
-      <c r="M46" s="3">
-        <v>200</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
       </c>
       <c r="O46" s="3">
+        <v>200</v>
+      </c>
+      <c r="P46" s="3">
         <v>100</v>
-      </c>
-      <c r="P46" s="3">
-        <v>200</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
@@ -3462,22 +3563,22 @@
         <v>200</v>
       </c>
       <c r="T46" s="3">
+        <v>200</v>
+      </c>
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>200</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>100</v>
       </c>
       <c r="Z46" s="3">
         <v>100</v>
@@ -3486,10 +3587,13 @@
         <v>100</v>
       </c>
       <c r="AB46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3520,8 +3624,8 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
@@ -3538,8 +3642,8 @@
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3568,8 +3672,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3610,7 +3717,7 @@
         <v>600</v>
       </c>
       <c r="P48" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="Q48" s="3">
         <v>900</v>
@@ -3634,7 +3741,7 @@
         <v>900</v>
       </c>
       <c r="X48" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Y48" s="3">
         <v>700</v>
@@ -3646,10 +3753,13 @@
         <v>700</v>
       </c>
       <c r="AB48" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC48" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4004,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,13 +4170,16 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E54" s="3">
         <v>700</v>
@@ -4063,10 +4188,10 @@
         <v>700</v>
       </c>
       <c r="G54" s="3">
+        <v>700</v>
+      </c>
+      <c r="H54" s="3">
         <v>800</v>
-      </c>
-      <c r="H54" s="3">
-        <v>700</v>
       </c>
       <c r="I54" s="3">
         <v>700</v>
@@ -4078,19 +4203,19 @@
         <v>700</v>
       </c>
       <c r="L54" s="3">
+        <v>700</v>
+      </c>
+      <c r="M54" s="3">
         <v>1000</v>
-      </c>
-      <c r="M54" s="3">
-        <v>800</v>
       </c>
       <c r="N54" s="3">
         <v>800</v>
       </c>
       <c r="O54" s="3">
+        <v>800</v>
+      </c>
+      <c r="P54" s="3">
         <v>700</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1100</v>
       </c>
       <c r="Q54" s="3">
         <v>1100</v>
@@ -4102,34 +4227,37 @@
         <v>1100</v>
       </c>
       <c r="T54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U54" s="3">
         <v>1200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>700</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>800</v>
       </c>
       <c r="AA54" s="3">
         <v>800</v>
       </c>
       <c r="AB54" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,13 +4317,14 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="E57" s="3">
         <v>1900</v>
@@ -4206,75 +4336,78 @@
         <v>1900</v>
       </c>
       <c r="H57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1800</v>
       </c>
       <c r="N57" s="3">
         <v>1800</v>
       </c>
       <c r="O57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P57" s="3">
         <v>1700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1200</v>
       </c>
       <c r="R57" s="3">
         <v>1200</v>
       </c>
       <c r="S57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T57" s="3">
         <v>1100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>800</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>700</v>
       </c>
       <c r="Z57" s="3">
         <v>700</v>
       </c>
       <c r="AA57" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB57" s="3">
         <v>600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="E58" s="3">
         <v>5700</v>
@@ -4283,129 +4416,132 @@
         <v>5700</v>
       </c>
       <c r="G58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H58" s="3">
         <v>5600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5500</v>
-      </c>
-      <c r="I58" s="3">
-        <v>5300</v>
       </c>
       <c r="J58" s="3">
         <v>5300</v>
       </c>
       <c r="K58" s="3">
+        <v>5300</v>
+      </c>
+      <c r="L58" s="3">
         <v>5200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>5100</v>
       </c>
       <c r="M58" s="3">
         <v>5100</v>
       </c>
       <c r="N58" s="3">
+        <v>5100</v>
+      </c>
+      <c r="O58" s="3">
         <v>4900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>800</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>700</v>
       </c>
       <c r="AA58" s="3">
         <v>700</v>
       </c>
       <c r="AB58" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E59" s="3">
         <v>4100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1000</v>
       </c>
       <c r="Q59" s="3">
         <v>1000</v>
       </c>
       <c r="R59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S59" s="3">
         <v>800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
-      </c>
-      <c r="U59" s="3">
-        <v>400</v>
       </c>
       <c r="V59" s="3">
         <v>400</v>
@@ -4414,7 +4550,7 @@
         <v>400</v>
       </c>
       <c r="X59" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
@@ -4426,90 +4562,96 @@
         <v>0</v>
       </c>
       <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E60" s="3">
         <v>11700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4541,11 +4683,11 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>100</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4588,8 +4730,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4621,7 +4766,7 @@
         <v>300</v>
       </c>
       <c r="M62" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N62" s="3">
         <v>500</v>
@@ -4630,16 +4775,16 @@
         <v>500</v>
       </c>
       <c r="P62" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q62" s="3">
         <v>700</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>500</v>
       </c>
       <c r="R62" s="3">
         <v>500</v>
       </c>
       <c r="S62" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T62" s="3">
         <v>400</v>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,8 +5062,11 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4917,79 +5074,82 @@
         <v>12000</v>
       </c>
       <c r="E66" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F66" s="3">
         <v>11700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-40500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-40600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-40200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-39900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-39400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-39000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-38600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-38100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-37700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-37000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-36400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-35900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-35500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-34300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-33700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-33300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-32900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-32100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-30600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-29500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-29100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-28900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-28600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-28400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-28100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-11600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-11300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-10900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-10600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-10200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-9900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-9500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-9200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-8700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-8600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-8100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-7600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-5900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-5500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-5100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-4400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-3000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-500</v>
       </c>
       <c r="G81" s="3">
         <v>-500</v>
       </c>
       <c r="H81" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I81" s="3">
         <v>-400</v>
       </c>
       <c r="J81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-500</v>
       </c>
       <c r="M81" s="3">
         <v>-500</v>
       </c>
       <c r="N81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-400</v>
       </c>
       <c r="R81" s="3">
         <v>-400</v>
       </c>
       <c r="S81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,19 +6210,20 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,13 +6706,16 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -6508,73 +6724,76 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-300</v>
       </c>
       <c r="I89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
       </c>
       <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-300</v>
       </c>
       <c r="P89" s="3">
         <v>-300</v>
       </c>
       <c r="Q89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
-      </c>
-      <c r="X89" s="3">
-        <v>-200</v>
       </c>
       <c r="Y89" s="3">
         <v>-200</v>
       </c>
       <c r="Z89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +6903,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7069,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7152,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,13 +7515,16 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
@@ -7288,73 +7533,76 @@
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>300</v>
       </c>
       <c r="I100" s="3">
+        <v>300</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
-      </c>
-      <c r="K100" s="3">
-        <v>300</v>
       </c>
       <c r="L100" s="3">
         <v>300</v>
       </c>
       <c r="M100" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N100" s="3">
         <v>200</v>
       </c>
       <c r="O100" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P100" s="3">
         <v>300</v>
       </c>
       <c r="Q100" s="3">
+        <v>300</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>1000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>100</v>
       </c>
       <c r="Z100" s="3">
         <v>100</v>
       </c>
       <c r="AA100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB100" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7681,11 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7481,26 +7732,26 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
-      </c>
-      <c r="U102" s="3">
-        <v>-400</v>
       </c>
       <c r="V102" s="3">
         <v>-400</v>
       </c>
       <c r="W102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X102" s="3">
         <v>500</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
@@ -7508,9 +7759,12 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRMC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRMC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>GRMC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,134 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -826,11 +838,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -841,29 +853,38 @@
       <c r="V8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X8" s="3">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="3">
         <v>200</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB8" s="3">
+      <c r="AB8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="3">
         <v>100</v>
       </c>
-      <c r="AC8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -903,8 +924,8 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
@@ -912,8 +933,8 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
+      <c r="S9" s="3">
+        <v>0</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
@@ -927,8 +948,8 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X9" s="3">
-        <v>0</v>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>4</v>
@@ -936,8 +957,8 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>4</v>
+      <c r="AA9" s="3">
+        <v>0</v>
       </c>
       <c r="AB9" s="3" t="s">
         <v>4</v>
@@ -945,8 +966,17 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -986,8 +1016,8 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
@@ -995,8 +1025,8 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
+      <c r="S10" s="3">
+        <v>0</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
@@ -1010,26 +1040,35 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3">
         <v>200</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1098,11 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1089,34 +1131,34 @@
         <v>0</v>
       </c>
       <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="T12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
       <c r="U12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V12" s="3">
         <v>0</v>
@@ -1134,16 +1176,25 @@
         <v>0</v>
       </c>
       <c r="AA12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="3">
         <v>100</v>
       </c>
-      <c r="AC12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,23 +1276,32 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-500</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1258,16 +1318,16 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
-      </c>
-      <c r="N14" s="3">
-        <v>100</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>500</v>
       </c>
       <c r="Q14" s="3">
         <v>100</v>
@@ -1276,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>100</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
@@ -1302,14 +1362,23 @@
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1325,14 +1394,14 @@
       <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1391,8 +1460,17 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,25 +1497,28 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-300</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>-300</v>
       </c>
       <c r="H17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
@@ -1446,55 +1527,55 @@
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>800</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>400</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
       <c r="S17" s="3">
+        <v>800</v>
+      </c>
+      <c r="T17" s="3">
+        <v>400</v>
+      </c>
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
+        <v>200</v>
+      </c>
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="X17" s="3">
         <v>1200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="Y17" s="3">
         <v>1200</v>
-      </c>
-      <c r="W17" s="3">
-        <v>200</v>
-      </c>
-      <c r="X17" s="3">
-        <v>400</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>200</v>
       </c>
       <c r="Z17" s="3">
         <v>200</v>
       </c>
       <c r="AA17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AB17" s="3">
         <v>200</v>
@@ -1502,8 +1583,17 @@
       <c r="AC17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1511,16 +1601,16 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
       </c>
       <c r="G18" s="3">
-        <v>-200</v>
+        <v>300</v>
       </c>
       <c r="H18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
@@ -1529,64 +1619,73 @@
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB18" s="3">
+      <c r="AB18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="3">
         <v>-100</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,8 +1715,11 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1634,26 +1736,26 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1663,11 +1765,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1678,29 +1780,38 @@
       <c r="V20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>0</v>
+      <c r="AB20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1716,41 +1827,41 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-300</v>
       </c>
       <c r="N21" s="3">
         <v>-300</v>
       </c>
       <c r="O21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S21" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="T21" s="3">
         <v>-500</v>
@@ -1761,29 +1872,38 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="W21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE21" s="3">
         <v>-100</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1800,7 +1920,7 @@
         <v>200</v>
       </c>
       <c r="H22" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
@@ -1809,7 +1929,7 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
@@ -1824,7 +1944,7 @@
         <v>200</v>
       </c>
       <c r="P22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>200</v>
@@ -1833,123 +1953,141 @@
         <v>200</v>
       </c>
       <c r="S22" s="3">
+        <v>300</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
+        <v>200</v>
+      </c>
+      <c r="V22" s="3">
+        <v>200</v>
+      </c>
+      <c r="W22" s="3">
         <v>300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="X22" s="3">
         <v>300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="Y22" s="3">
         <v>300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Z22" s="3">
         <v>200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="AA22" s="3">
         <v>100</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="3" t="s">
-        <v>4</v>
+      <c r="AB22" s="3">
+        <v>0</v>
       </c>
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>100</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F23" s="3">
         <v>-400</v>
       </c>
       <c r="G23" s="3">
-        <v>-500</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="I23" s="3">
         <v>-400</v>
       </c>
       <c r="J23" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K23" s="3">
         <v>-500</v>
       </c>
       <c r="L23" s="3">
-        <v>-700</v>
+        <v>-400</v>
       </c>
       <c r="M23" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="N23" s="3">
         <v>-500</v>
       </c>
       <c r="O23" s="3">
-        <v>-400</v>
+        <v>-700</v>
       </c>
       <c r="P23" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="Q23" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="R23" s="3">
         <v>-400</v>
       </c>
       <c r="S23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W23" s="3">
         <v>-800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="X23" s="3">
         <v>-1500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="Y23" s="3">
         <v>-1500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Z23" s="3">
         <v>-400</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-200</v>
       </c>
       <c r="AA23" s="3">
         <v>-200</v>
       </c>
       <c r="AB23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="AC23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2031,8 +2169,17 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2261,201 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>100</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F26" s="3">
         <v>-400</v>
       </c>
       <c r="G26" s="3">
-        <v>-500</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="I26" s="3">
         <v>-400</v>
       </c>
       <c r="J26" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K26" s="3">
         <v>-500</v>
       </c>
       <c r="L26" s="3">
-        <v>-700</v>
+        <v>-400</v>
       </c>
       <c r="M26" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="N26" s="3">
         <v>-500</v>
       </c>
       <c r="O26" s="3">
-        <v>-400</v>
+        <v>-700</v>
       </c>
       <c r="P26" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="Q26" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="R26" s="3">
         <v>-400</v>
       </c>
       <c r="S26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="X26" s="3">
         <v>-1500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="Y26" s="3">
         <v>-1500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Z26" s="3">
         <v>-400</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-200</v>
       </c>
       <c r="AA26" s="3">
         <v>-200</v>
       </c>
       <c r="AB26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="AC26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>100</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F27" s="3">
         <v>-400</v>
       </c>
       <c r="G27" s="3">
-        <v>-500</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="I27" s="3">
         <v>-400</v>
       </c>
       <c r="J27" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K27" s="3">
         <v>-500</v>
       </c>
       <c r="L27" s="3">
-        <v>-700</v>
+        <v>-400</v>
       </c>
       <c r="M27" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="N27" s="3">
         <v>-500</v>
       </c>
       <c r="O27" s="3">
-        <v>-400</v>
+        <v>-700</v>
       </c>
       <c r="P27" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="Q27" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="R27" s="3">
         <v>-400</v>
       </c>
       <c r="S27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="X27" s="3">
         <v>-1500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="Y27" s="3">
         <v>-1600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AB27" s="3">
         <v>-300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AC27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AD27" s="3">
         <v>-300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AE27" s="3">
         <v>-200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AF27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2537,17 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2629,17 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2721,17 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,8 +2813,17 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2630,26 +2840,26 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2659,11 +2869,11 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -2674,112 +2884,130 @@
       <c r="V32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>0</v>
+      <c r="AB32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>100</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F33" s="3">
         <v>-400</v>
       </c>
       <c r="G33" s="3">
-        <v>-500</v>
+        <v>100</v>
       </c>
       <c r="H33" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="I33" s="3">
         <v>-400</v>
       </c>
       <c r="J33" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K33" s="3">
         <v>-500</v>
       </c>
       <c r="L33" s="3">
-        <v>-700</v>
+        <v>-400</v>
       </c>
       <c r="M33" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="N33" s="3">
         <v>-500</v>
       </c>
       <c r="O33" s="3">
-        <v>-400</v>
+        <v>-700</v>
       </c>
       <c r="P33" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="Q33" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="R33" s="3">
         <v>-400</v>
       </c>
       <c r="S33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="X33" s="3">
         <v>-1500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="Y33" s="3">
         <v>-1600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AB33" s="3">
         <v>-300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AC33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AD33" s="3">
         <v>-300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AE33" s="3">
         <v>-200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AF33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3089,206 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>100</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F35" s="3">
         <v>-400</v>
       </c>
       <c r="G35" s="3">
-        <v>-500</v>
+        <v>100</v>
       </c>
       <c r="H35" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="I35" s="3">
         <v>-400</v>
       </c>
       <c r="J35" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K35" s="3">
         <v>-500</v>
       </c>
       <c r="L35" s="3">
-        <v>-700</v>
+        <v>-400</v>
       </c>
       <c r="M35" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="N35" s="3">
         <v>-500</v>
       </c>
       <c r="O35" s="3">
-        <v>-400</v>
+        <v>-700</v>
       </c>
       <c r="P35" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="Q35" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="R35" s="3">
         <v>-400</v>
       </c>
       <c r="S35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="X35" s="3">
         <v>-1500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="Y35" s="3">
         <v>-1600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AB35" s="3">
         <v>-300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AC35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AD35" s="3">
         <v>-300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AE35" s="3">
         <v>-200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AF35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3318,11 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,8 +3352,11 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3148,37 +3409,46 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
         <v>100</v>
       </c>
       <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
         <v>500</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>0</v>
-      </c>
       <c r="AB41" s="3">
         <v>0</v>
       </c>
       <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,8 +3530,17 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3328,23 +3607,32 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z43" s="3" t="s">
-        <v>4</v>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
       </c>
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-      <c r="AB43" s="3">
-        <v>0</v>
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,13 +3714,22 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -3444,78 +3741,87 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
-      </c>
-      <c r="O45" s="3">
-        <v>200</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>200</v>
       </c>
       <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
-        <v>100</v>
-      </c>
       <c r="U45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V45" s="3">
         <v>200</v>
       </c>
       <c r="W45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Y45" s="3">
         <v>200</v>
       </c>
       <c r="Z45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA45" s="3">
         <v>100</v>
       </c>
       <c r="AB45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC45" s="3">
         <v>100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -3527,31 +3833,31 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
-      </c>
-      <c r="N46" s="3">
-        <v>200</v>
-      </c>
-      <c r="O46" s="3">
-        <v>200</v>
-      </c>
-      <c r="P46" s="3">
-        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
@@ -3560,40 +3866,49 @@
         <v>200</v>
       </c>
       <c r="S46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
       </c>
       <c r="U46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V46" s="3">
         <v>200</v>
       </c>
       <c r="W46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="X46" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Y46" s="3">
         <v>200</v>
       </c>
       <c r="Z46" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC46" s="3">
         <v>100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AD46" s="3">
         <v>100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AE46" s="3">
         <v>100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AF46" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3627,14 +3942,14 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>4</v>
@@ -3645,14 +3960,14 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3675,8 +3990,17 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3720,13 +4044,13 @@
         <v>600</v>
       </c>
       <c r="Q48" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="R48" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="S48" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T48" s="3">
         <v>900</v>
@@ -3744,22 +4068,31 @@
         <v>900</v>
       </c>
       <c r="Y48" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Z48" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AA48" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AB48" s="3">
         <v>700</v>
       </c>
       <c r="AC48" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>700</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>700</v>
+      </c>
+      <c r="AF48" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3841,8 +4174,17 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4266,17 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4358,17 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4090,8 +4450,17 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,13 +4542,22 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E54" s="3">
         <v>700</v>
@@ -4188,10 +4566,10 @@
         <v>700</v>
       </c>
       <c r="G54" s="3">
+        <v>800</v>
+      </c>
+      <c r="H54" s="3">
         <v>700</v>
-      </c>
-      <c r="H54" s="3">
-        <v>800</v>
       </c>
       <c r="I54" s="3">
         <v>700</v>
@@ -4200,64 +4578,73 @@
         <v>700</v>
       </c>
       <c r="K54" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L54" s="3">
         <v>700</v>
       </c>
       <c r="M54" s="3">
+        <v>700</v>
+      </c>
+      <c r="N54" s="3">
+        <v>700</v>
+      </c>
+      <c r="O54" s="3">
+        <v>700</v>
+      </c>
+      <c r="P54" s="3">
         <v>1000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>700</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="R54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="S54" s="3">
-        <v>1100</v>
       </c>
       <c r="T54" s="3">
         <v>1100</v>
       </c>
       <c r="U54" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="V54" s="3">
         <v>1100</v>
       </c>
       <c r="W54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X54" s="3">
         <v>1200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA54" s="3">
         <v>1500</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>800</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>700</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>800</v>
       </c>
       <c r="AB54" s="3">
         <v>800</v>
       </c>
       <c r="AC54" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>800</v>
+      </c>
+      <c r="AE54" s="3">
+        <v>800</v>
+      </c>
+      <c r="AF54" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4674,11 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,8 +4708,11 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4327,22 +4720,22 @@
         <v>1500</v>
       </c>
       <c r="E57" s="3">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="F57" s="3">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="G57" s="3">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="H57" s="3">
         <v>1900</v>
       </c>
       <c r="I57" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J57" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K57" s="3">
         <v>1900</v>
@@ -4354,304 +4747,340 @@
         <v>2000</v>
       </c>
       <c r="N57" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="O57" s="3">
         <v>1800</v>
       </c>
       <c r="P57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S57" s="3">
         <v>1700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="T57" s="3">
         <v>1300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="T57" s="3">
-        <v>1100</v>
       </c>
       <c r="U57" s="3">
         <v>1200</v>
       </c>
       <c r="V57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y57" s="3">
         <v>600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Z57" s="3">
         <v>300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="AA57" s="3">
         <v>200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AB57" s="3">
         <v>800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AC57" s="3">
         <v>700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AD57" s="3">
         <v>700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AE57" s="3">
         <v>600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AF57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G58" s="3">
         <v>5900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>5700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>5700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>5700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>5600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>5500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>5300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>5300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>5200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>5100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>5100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>4900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>4700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="T58" s="3">
         <v>4300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="U58" s="3">
         <v>4000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="V58" s="3">
         <v>3800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="W58" s="3">
         <v>3700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="X58" s="3">
         <v>3200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="Y58" s="3">
         <v>2500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Z58" s="3">
         <v>2000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="AA58" s="3">
         <v>1900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AB58" s="3">
         <v>1100</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>800</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>700</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>700</v>
       </c>
       <c r="AC58" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>700</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>700</v>
+      </c>
+      <c r="AF58" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G59" s="3">
         <v>4200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>4100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>3800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>3500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>3300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>3000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>2800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>2500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>2200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>2000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>1700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>1500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>1300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>1000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="U59" s="3">
         <v>1000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="V59" s="3">
         <v>800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="W59" s="3">
         <v>700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="X59" s="3">
         <v>500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="Y59" s="3">
         <v>400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Z59" s="3">
         <v>400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="AA59" s="3">
         <v>400</v>
       </c>
-      <c r="Y59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>0</v>
-      </c>
       <c r="AB59" s="3">
         <v>0</v>
       </c>
       <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G60" s="3">
         <v>11600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>11700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>11400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>11100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>10700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>10300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>10000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>9600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>9300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>9100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>8600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>8200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>7600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>6600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>6200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>5800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="W60" s="3">
         <v>5500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="X60" s="3">
         <v>4900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="Y60" s="3">
         <v>3400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Z60" s="3">
         <v>2700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="AA60" s="3">
         <v>2500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AB60" s="3">
         <v>1900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AC60" s="3">
         <v>1600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AD60" s="3">
         <v>1400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AE60" s="3">
         <v>1300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AF60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4686,17 +5115,17 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>100</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4733,8 +5162,17 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4769,16 +5207,16 @@
         <v>300</v>
       </c>
       <c r="N62" s="3">
+        <v>300</v>
+      </c>
+      <c r="O62" s="3">
+        <v>300</v>
+      </c>
+      <c r="P62" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q62" s="3">
         <v>500</v>
-      </c>
-      <c r="O62" s="3">
-        <v>500</v>
-      </c>
-      <c r="P62" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>700</v>
       </c>
       <c r="R62" s="3">
         <v>500</v>
@@ -4787,13 +5225,13 @@
         <v>500</v>
       </c>
       <c r="T62" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="U62" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V62" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W62" s="3">
         <v>400</v>
@@ -4816,8 +5254,17 @@
       <c r="AC62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>400</v>
+      </c>
+      <c r="AF62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5346,17 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5438,17 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5530,109 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>12300</v>
+      </c>
+      <c r="G66" s="3">
         <v>12000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>12000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>11700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>11400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>11100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>10600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>10300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>9900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>9600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>9400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>9100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>8600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>8100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>7300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>6600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>6200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>5900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="X66" s="3">
         <v>5300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="Y66" s="3">
         <v>3800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Z66" s="3">
         <v>3100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="AA66" s="3">
         <v>2900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AB66" s="3">
         <v>2300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AC66" s="3">
         <v>2000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AD66" s="3">
         <v>1800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AE66" s="3">
         <v>1700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AF66" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5662,11 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5748,17 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5840,17 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5932,17 @@
       <c r="AC70" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>300</v>
+      </c>
+      <c r="AF70" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +6024,109 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-41700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-40900</v>
+      </c>
+      <c r="G72" s="3">
         <v>-40500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-40600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-40200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-39900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-39400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-39000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-38600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-38100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-37700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-37000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-36400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-35900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-35500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-34300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-33700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-33300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>-32900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="X72" s="3">
         <v>-32100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="Y72" s="3">
         <v>-30600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Z72" s="3">
         <v>-29500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="AA72" s="3">
         <v>-29100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AB72" s="3">
         <v>-28900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AC72" s="3">
         <v>-28600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AD72" s="3">
         <v>-28400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AE72" s="3">
         <v>-28100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AF72" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6208,17 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6300,17 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6392,109 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="G76" s="3">
         <v>-11500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-11600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-11300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-10900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-10600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-10200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-9900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-9500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-9200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>-8700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>-8600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>-8100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>-6500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>-5900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>-5500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>-5100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="X76" s="3">
         <v>-4400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="Y76" s="3">
         <v>-3000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Z76" s="3">
         <v>-2100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="AA76" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AB76" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AC76" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AD76" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AE76" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AF76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6576,206 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>100</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F81" s="3">
         <v>-400</v>
       </c>
       <c r="G81" s="3">
-        <v>-500</v>
+        <v>100</v>
       </c>
       <c r="H81" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="I81" s="3">
         <v>-400</v>
       </c>
       <c r="J81" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K81" s="3">
         <v>-500</v>
       </c>
       <c r="L81" s="3">
-        <v>-700</v>
+        <v>-400</v>
       </c>
       <c r="M81" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="N81" s="3">
         <v>-500</v>
       </c>
       <c r="O81" s="3">
-        <v>-400</v>
+        <v>-700</v>
       </c>
       <c r="P81" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="Q81" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="R81" s="3">
         <v>-400</v>
       </c>
       <c r="S81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="X81" s="3">
         <v>-1500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="Y81" s="3">
         <v>-1600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AB81" s="3">
         <v>-300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AC81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AD81" s="3">
         <v>-300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AE81" s="3">
         <v>-200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AF81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6805,11 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6294,8 +6891,17 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6983,17 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +7075,17 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +7167,17 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7259,17 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +7351,109 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-300</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L89" s="3">
         <v>-300</v>
       </c>
       <c r="M89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
       </c>
       <c r="O89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>-300</v>
       </c>
       <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="Y89" s="3">
         <v>-900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Z89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="AA89" s="3">
         <v>-500</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>-100</v>
       </c>
       <c r="AB89" s="3">
         <v>-200</v>
       </c>
       <c r="AC89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AF89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7483,11 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6906,8 +7569,17 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7661,17 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7753,17 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7155,8 +7845,17 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7885,11 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7971,17 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +8063,17 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +8155,17 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,91 +8247,109 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>200</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>300</v>
-      </c>
-      <c r="I100" s="3">
-        <v>300</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L100" s="3">
         <v>300</v>
       </c>
       <c r="M100" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>200</v>
       </c>
       <c r="O100" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P100" s="3">
         <v>300</v>
       </c>
       <c r="Q100" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R100" s="3">
         <v>200</v>
       </c>
       <c r="S100" s="3">
+        <v>300</v>
+      </c>
+      <c r="T100" s="3">
+        <v>300</v>
+      </c>
+      <c r="U100" s="3">
+        <v>200</v>
+      </c>
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="X100" s="3">
         <v>600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="Y100" s="3">
         <v>500</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>200</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA100" s="3">
-        <v>100</v>
       </c>
       <c r="AB100" s="3">
         <v>200</v>
       </c>
       <c r="AC100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE100" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,8 +8431,17 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7735,36 +8491,45 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="Y102" s="3">
         <v>-400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Z102" s="3">
         <v>-400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="AA102" s="3">
         <v>500</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="3">
-        <v>0</v>
-      </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>-100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AF102" s="3">
         <v>100</v>
       </c>
     </row>
